--- a/definition测试/【1】Tos2PP/output_Tuple.xlsx
+++ b/definition测试/【1】Tos2PP/output_Tuple.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Modifier</t>
+          <t>object source/target</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -494,14 +494,6 @@
           <t>type requirement2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr"/>
-      <c r="N1" s="1" t="inlineStr"/>
-      <c r="O1" s="1" t="inlineStr"/>
-      <c r="P1" s="1" t="inlineStr"/>
-      <c r="Q1" s="1" t="inlineStr"/>
-      <c r="R1" s="1" t="inlineStr"/>
-      <c r="S1" s="1" t="inlineStr"/>
-      <c r="T1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -521,34 +513,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.</t>
+          <t>Description: Customer must provide its own privacy statement or notice to its End Users</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mixpanel's Privacy Statement  </t>
+          <t xml:space="preserve">Customer  </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  governs  </t>
+          <t xml:space="preserve">  must provide  </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  tracking and use of information about the Customer on Mixpanel Sites  </t>
+          <t xml:space="preserve">  privacy statement or notice  </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t xml:space="preserve">  to its End Users  </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">  NULL</t>
@@ -556,62 +548,50 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Third party is: Mixpanel</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mixpanel</t>
+          <t>amplitude</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.8 Privacy Statement. Mixpanel’s tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement, available at https://mixpanel.com/legal/privacy-policy/. The Mixpanel Privacy Statement does not cover information Mixpanel processes on Customer’s behalf in providing the Application Services and it shall be Customer’s obligation to provide Customer’s own privacy statement or notice to its End Users as well as to provide all required disclosures to and obtain all required consents from Customer’s employees and/or agents. In addition, Mixpanel may collect registration and other information about Customer as Mixpanel’s customer through Mixpanel Sites.</t>
+          <t>Customer shall be responsible for： (b) the legality, accuracy and quality of Customer Data, including ensuring that Customer’s collection and submission of data to, and use of the Amplitude Services to process, store and transmit Customer Data, is compliant with all applicable laws and regulations as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users, including to obtain all legally required consents and permissions;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.</t>
+          <t>Description: Customer must comply with any privacy policies, agreements, or other obligations it maintains or enters into with its end users</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The Mixpanel Privacy Statement  </t>
+          <t xml:space="preserve">Customer  </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    available    </t>
+          <t xml:space="preserve">  must comply with  </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    NULL  </t>
+          <t xml:space="preserve">  privacy policies, agreements, or other obligations  </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  https://mixpanel.com/legal/privacy-policy/  </t>
+          <t xml:space="preserve">  with its end users  </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -630,24 +610,16 @@
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mixpanel</t>
+          <t>amplitude</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.8 Privacy Statement. Mixpanel’s tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement, available at https://mixpanel.com/legal/privacy-policy/. The Mixpanel Privacy Statement does not cover information Mixpanel processes on Customer’s behalf in providing the Application Services and it shall be Customer’s obligation to provide Customer’s own privacy statement or notice to its End Users as well as to provide all required disclosures to and obtain all required consents from Customer’s employees and/or agents. In addition, Mixpanel may collect registration and other information about Customer as Mixpanel’s customer through Mixpanel Sites.</t>
+          <t>Customer shall be responsible for： (b) the legality, accuracy and quality of Customer Data, including ensuring that Customer’s collection and submission of data to, and use of the Amplitude Services to process, store and transmit Customer Data, is compliant with all applicable laws and regulations as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users, including to obtain all legally required consents and permissions;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -657,63 +629,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Description: It is the Customer's obligation to provide their own privacy statement or notice to their End Users.</t>
+          <t>Description: Customer can collect, submit, and use data only if it obtains all legally required consents and permissions</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Customer  </t>
+          <t xml:space="preserve">Customer </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve"> collect, submit, and use </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy statement or notice  </t>
+          <t xml:space="preserve"> data </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to their End Users  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> if it obtains all legally required consents and permissions</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>amplitude</t>
+          <t>firebase</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Customer shall be responsible for： (b) the legality, accuracy and quality of Customer Data, including ensuring that Customer’s collection and submission of data to, and use of the Amplitude Services to process, store and transmit Customer Data, is compliant with all applicable laws and regulations as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users, including to obtain all legally required consents and permissions;</t>
+          <t>You will not and will not assist or permit any third party to pass information, hashed or otherwise, to Google that Google could use or recognize as personally identifiable information, except where permitted by, and subject to, the policies or terms of Google Analytics features made available to You, and only if, any information passed to Google for such Google Analytics feature is hashed using industry standards. You will have and abide by an appropriate Privacy Policy and will comply with all applicable laws, policies, and regulations relating to the collection of information from Users. You must post a Privacy Policy and that Privacy Policy must provide notice of Your use of cookies, identifiers for mobile devices (e.g., Android Advertising Identifier or Advertising Identifier for iOS) or similar technology used to collect data. You must disclose the use of Google Analytics, and how it collects and processes data. This can be done by displaying a prominent link to the site "How Google uses information from sites or apps that use our services", (located at www.google.com/policies/privacy/partners/, or any other URL that Google may provide from time to time). You will use commercially reasonable efforts to ensure that a User is provided with clear and comprehensive information about, and consents to, the storing and accessing of cookies or other information on the User’s device where such activity occurs in connection with the Service and where providing such information and obtaining such consent is required by law.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -723,53 +683,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.</t>
+          <t>Description: You must have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The Customer  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ensure compliance  </t>
+          <t xml:space="preserve"> must have and abide by </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy policies, agreements, or other obligations  </t>
+          <t xml:space="preserve"> an appropriate Privacy Policy </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  with their end users  </t>
+          <t xml:space="preserve"> from Users </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> to comply with all applicable laws, policies, and regulations regarding the collection of information </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,58 +732,50 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Description: You must have and adhere to an appropriate Privacy Policy that complies with all relevant laws, policies, and regulations regarding the collection of user information.</t>
+          <t>Description: Your Privacy Policy must disclose Your use of cookies, mobile device identifiers, or similar technology used to collect data.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a Privacy Policy  </t>
+          <t xml:space="preserve">Your Privacy Policy </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  complies with  </t>
+          <t xml:space="preserve"> must disclose </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  all relevant laws, policies, and regulations  </t>
+          <t xml:space="preserve"> Your use of cookies, mobile device identifiers, or similar technology used to collect data </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  regarding the collection of user information  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -850,32 +790,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Description: Your Privacy Policy must inform users about your use of cookies, mobile device identifiers, or similar technologies for data collection.</t>
+          <t>Description: You must disclose the use of Google Analytics and how it collects and processes data, including by providing a prominent link to Google's privacy policy for partners.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your Privacy Policy </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informs users </t>
+          <t xml:space="preserve"> must disclose </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> your use of cookies, mobile device identifiers, or similar technologies </t>
+          <t xml:space="preserve"> the use of Google Analytics and how it collects and processes data </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> for data collection </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -885,33 +825,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> providing a prominent link to Google's privacy policy for partners</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: Google Analytics</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>firebase</t>
+          <t>yandex</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>You will not and will not assist or permit any third party to pass information, hashed or otherwise, to Google that Google could use or recognize as personally identifiable information, except where permitted by, and subject to, the policies or terms of Google Analytics features made available to You, and only if, any information passed to Google for such Google Analytics feature is hashed using industry standards. You will have and abide by an appropriate Privacy Policy and will comply with all applicable laws, policies, and regulations relating to the collection of information from Users. You must post a Privacy Policy and that Privacy Policy must provide notice of Your use of cookies, identifiers for mobile devices (e.g., Android Advertising Identifier or Advertising Identifier for iOS) or similar technology used to collect data. You must disclose the use of Google Analytics, and how it collects and processes data. This can be done by displaying a prominent link to the site "How Google uses information from sites or apps that use our services", (located at www.google.com/policies/privacy/partners/, or any other URL that Google may provide from time to time). You will use commercially reasonable efforts to ensure that a User is provided with clear and comprehensive information about, and consents to, the storing and accessing of cookies or other information on the User’s device where such activity occurs in connection with the Service and where providing such information and obtaining such consent is required by law.</t>
+          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -921,67 +853,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Description: You must disclose your use of Google Analytics and how it collects and processes data, potentially by linking to Google's privacy policy for partners.</t>
+          <t>Description: You must provide a legally adequate privacy notice to End Users about it</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> you  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must disclose  </t>
+          <t xml:space="preserve"> must provide </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  your use of Google Analytics and how it collects and processes data  </t>
+          <t xml:space="preserve"> a legally adequate privacy notice </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> to End Users </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  potentially by linking to Google's privacy policy for partners  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>need to provide a link</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Third party is: Google</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>firebase</t>
+          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>You will not and will not assist or permit any third party to pass information, hashed or otherwise, to Google that Google could use or recognize as personally identifiable information, except where permitted by, and subject to, the policies or terms of Google Analytics features made available to You, and only if, any information passed to Google for such Google Analytics feature is hashed using industry standards. You will have and abide by an appropriate Privacy Policy and will comply with all applicable laws, policies, and regulations relating to the collection of information from Users. You must post a Privacy Policy and that Privacy Policy must provide notice of Your use of cookies, identifiers for mobile devices (e.g., Android Advertising Identifier or Advertising Identifier for iOS) or similar technology used to collect data. You must disclose the use of Google Analytics, and how it collects and processes data. This can be done by displaying a prominent link to the site "How Google uses information from sites or apps that use our services", (located at www.google.com/policies/privacy/partners/, or any other URL that Google may provide from time to time). You will use commercially reasonable efforts to ensure that a User is provided with clear and comprehensive information about, and consents to, the storing and accessing of cookies or other information on the User’s device where such activity occurs in connection with the Service and where providing such information and obtaining such consent is required by law.</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -991,159 +911,135 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Description: You are required to provide clear and comprehensive information about, and obtain consent for, storing and accessing cookies or other information on users' devices where required by law.</t>
+          <t>Description: Your privacy policy must comply with all applicable laws and industry standards.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  You  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide information and obtain consent  </t>
+          <t xml:space="preserve"> must comply </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  storing and accessing cookies or other information  </t>
+          <t xml:space="preserve"> with all applicable laws and industry standards </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  on users' devices  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  where required by law  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>yandex</t>
+          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.</t>
+          <t>Description: Your privacy policy must be clearly and conspicuously posted within your application, in any store, and on any website where the application may be acquired.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  You  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  inform  </t>
+          <t xml:space="preserve"> must be posted </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  certain information will be available to You  </t>
+          <t xml:space="preserve"> within your application, in any store, and on any website where the application may be acquired </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  End Users  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>yandex</t>
+          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information.</t>
+          <t>Description: Your privacy policy must provide notice of your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data about end users.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a legally adequate privacy notice  </t>
+          <t xml:space="preserve">Your privacy policy  </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve">  must provide notice  </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  End User Information  </t>
+          <t xml:space="preserve">  your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data  </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to End Users  </t>
+          <t xml:space="preserve">  about end users  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1158,53 +1054,45 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: NULL</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>yandex</t>
+          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Description: You must obtain the End User鈥檚 permission to gather and use End User Information.</t>
+          <t>Description: Your privacy policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  You  </t>
+          <t xml:space="preserve">Your privacy policy  </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  obtain  </t>
+          <t xml:space="preserve">  must contain  </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  End User's permission  </t>
+          <t xml:space="preserve">  a link to Flurry锟斤拷s Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry锟斤拷s use of User Data  </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1214,7 +1102,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to gather and use End User Information  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1224,18 +1112,10 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Third party is: Flurry</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1245,108 +1125,104 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.&amp;#10;您同意在使用服务之前获得适用法律要求的所有最终用户同意。您同意遵守与收集、使用和共享用户信息有关的所有适用法律、政策和法规。</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.</t>
+          <t>Description: You must advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">NULL </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  complies with  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  all applicable laws and industry standards  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+          <t>mention opt-out : Limit Ad Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>need link to guide how to opt-out</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
+          <t>onesignal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.&amp;#10;您同意在使用服务之前获得适用法律要求的所有最终用户同意。您同意遵守与收集、使用和共享用户信息有关的所有适用法律、政策和法规。</t>
+          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.</t>
+          <t>Description: Licensee must publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">Licensee  </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  post  </t>
+          <t xml:space="preserve">  must publish  </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  clearly and conspicuously  </t>
+          <t xml:space="preserve">  privacy policies and disclosures  </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  within your application, in any store, and on any website  </t>
+          <t xml:space="preserve">  for the Properties  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  where the application may be acquired  </t>
+          <t xml:space="preserve">  comply with applicable law and the terms of this EULA  </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1356,28 +1232,20 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
+          <t>onesignal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.&amp;#10;您同意在使用服务之前获得适用法律要求的所有最终用户同意。您同意遵守与收集、使用和共享用户信息有关的所有适用法律、政策和法规。</t>
+          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1387,127 +1255,103 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.</t>
+          <t>Description: The privacy policies must clearly disclose that the SDK Information will be collected and specify its usage as set forth in Section 5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> your privacy policy  </t>
+          <t xml:space="preserve">The privacy policies </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must contain  </t>
+          <t xml:space="preserve"> must clearly disclose </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a link to Flurry's Privacy Policy  </t>
+          <t xml:space="preserve"> the SDK Information will be collected and specify its usage </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data  </t>
+          <t xml:space="preserve"> as set forth in Section 5 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>need to provide a link</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Third party is: Flurry</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+          <t>Third party is: NULL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
+          <t>onesignal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.&amp;#10;您同意在使用服务之前获得适用法律要求的所有最终用户同意。您同意遵守与收集、使用和共享用户信息有关的所有适用法律、政策和法规。</t>
+          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must include a statement advising users on how to opt-out of targeted ads on a device by device basis and provide active links to opt-out resources.</t>
+          <t>Description: A privacy policy can only be posted on a website if it describes how the party collects, uses, and shares information.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">A privacy policy  </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  can be posted  </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  how the party collects, uses, and shares information  </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+          <t>Third party is: the party</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1517,63 +1361,59 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
+          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.</t>
+          <t>Description: A privacy policy can only be posted on a website if it provides information about how an End User can opt out of interest-based advertising.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Licensee  </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  obtaining necessary consents  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  allow OneSignal to collect information  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from End Users' devices or browsers  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+          <t>mention opt out: interest-based advertising</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>need link to guide how to opt-out</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1583,244 +1423,220 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
+          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.</t>
+          <t>Description: The opt-out information can only be provided if it includes methods for online behavioral or mobile cross-app advertising.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Licensee  </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  publish  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy policies and disclosures  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for the Properties  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in compliance with applicable laws and the terms of this EULA  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+          <t>mention opt out: online behavioral or mobile cross-app advertising</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>onesignal</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
+          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Description: The privacy policies must clearly disclose the collection of SDK Information and its intended use, as detailed in Section 5 of the EULA.</t>
+          <t>Description: Your Stripe Application can only be made available to the Business User if the privacy notice or privacy policy is readily accessible</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policies </t>
+          <t xml:space="preserve">Your Stripe Application  </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must disclose </t>
+          <t xml:space="preserve">  can be made available  </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the collection of SDK Information and its intended use </t>
+          <t xml:space="preserve">  privacy notice or privacy policy  </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  from user  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> as detailed in Section 5 of the EULA </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+          <t>Third party is: Stripe</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>onesignal</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
+          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Description: Each party is required to maintain a privacy policy on their website.</t>
+          <t>Description: This includes providing a link in your Stripe App listing in the Stripe Apps Marketplace</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Each party  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  maintain  </t>
+          <t xml:space="preserve"> providing a link </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve"> in your Stripe App listing in the Stripe Apps Marketplace </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  on their website  </t>
+          <t xml:space="preserve"> share to Stripe Apps Marketplace </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: Stripe Apps Marketplace</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>onesignal</t>
+          <t>RevenuCat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
+          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide details on how End Users can opt out of interest-based advertising, such as online behavioral or mobile cross-app advertising.</t>
+          <t>Description: Customer's data collection and use practices can only be implemented if all necessary disclosures are made to, and consents and authorizations are obtained from, Customer's users.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">Customer's privacy policy </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> must implement data collection and use practices </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> necessary disclosures, consents and authorizations </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> from Customer's users </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1828,64 +1644,48 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>RevenuCat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
+          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Description: Ensure that the privacy notice or privacy policy for the Stripe Application is easily accessible to the Business User.</t>
+          <t>Description: RevenueCat's and Stripe's processing of personally identifiable information relating to users can only take place if Customer has made all necessary disclosures to, and obtained consents and authorizations from, its users.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy notice or privacy policy  </t>
+          <t xml:space="preserve">Customer  </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  is accessible  </t>
+          <t xml:space="preserve">  has made  </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the Stripe Application  </t>
+          <t xml:space="preserve">  all necessary disclosures to, and obtained consents and authorizations from, its users  </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to the Business User  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1895,68 +1695,60 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  easily</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: RevenueCat and Stripe</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>RevenuCat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
+          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Description: Include a link to the privacy notice or privacy policy in the Stripe Application's listing within the Stripe Apps Marketplace.</t>
+          <t>Description: Customer's privacy policy must disclose RevenueCat's and Stripe's processing of such information in a reasonable and industry-standard manner.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the Stripe Application's listing  </t>
+          <t xml:space="preserve">Customer's privacy policy  </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  include  </t>
+          <t xml:space="preserve">  must disclose  </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a link to the privacy notice or privacy policy  </t>
+          <t xml:space="preserve">  RevenueCat's and Stripe's processing of such information  </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  within the Stripe Apps Marketplace  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  in a reasonable and industry-standard manner  </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1966,18 +1758,10 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: RevenueCat and Stripe</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1992,42 +1776,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Description: Customer is responsible for making all necessary disclosures to their users and obtaining the required consents and authorizations for RevenueCat to perform the Services.</t>
+          <t>Description: Customer must make all necessary disclosures in a reasonable and industry-standard manner.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Customer  </t>
+          <t xml:space="preserve">Customer </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  making all necessary disclosures  </t>
+          <t xml:space="preserve"> make all necessary disclosures </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  required consents and authorizations  </t>
+          <t xml:space="preserve"> in a reasonable and industry-standard manner </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to their users  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for RevenueCat to perform the Services  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2036,24 +1820,16 @@
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RevenuCat</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
+          <t>You must display your service’s privacy policy to people before they are permitted to download, install, or sign up to your service. It must disclose at least the following information:&amp;#10;&amp;#10;The information that you collect from people who use your service&amp;#10;&amp;#10;How you use and share that information (including with X)&amp;#10;&amp;#10;How people can contact you with inquiries and requests regarding their information&amp;#10;&amp;#10;Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X’s Privacy Policy and the privacy policy of our other services and corporate affiliates. You must cease your access to the X API and the use of all X Content if you are unable to comply with your and/or X’s Privacy Policy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2063,67 +1839,51 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users, which must be disclosed in Customer's privacy policy.</t>
+          <t>Description: People can only download, install, or sign up to your service if your service's privacy policy is displayed to them.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Customer's privacy policy  </t>
+          <t xml:space="preserve">your service's privacy policy </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must disclose  </t>
+          <t xml:space="preserve"> is displayed </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RevenueCat's and Stripe's processing of personally identifiable information of the users  </t>
+          <t xml:space="preserve"> People can only download, install, or sign up to your service </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Third party is: RevenueCat and Stripe</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RevenuCat</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
+          <t>You must display your service’s privacy policy to people before they are permitted to download, install, or sign up to your service. It must disclose at least the following information:&amp;#10;&amp;#10;The information that you collect from people who use your service&amp;#10;&amp;#10;How you use and share that information (including with X)&amp;#10;&amp;#10;How people can contact you with inquiries and requests regarding their information&amp;#10;&amp;#10;Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X’s Privacy Policy and the privacy policy of our other services and corporate affiliates. You must cease your access to the X API and the use of all X Content if you are unable to comply with your and/or X’s Privacy Policy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2133,53 +1893,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Description: The disclosure should be made in a reasonable and industry-standard manner within the Customer's privacy policy.</t>
+          <t>Description: Your privacy policy must disclose the information that you collect from people who use your service.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The disclosure  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  should be made  </t>
+          <t xml:space="preserve"> must disclose </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a reasonable and industry-standard manner  </t>
+          <t xml:space="preserve"> the information that you collect from people who use your service </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  within the Customer's privacy policy  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2194,58 +1942,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Description: Display the service's privacy policy before allowing users to download, install, or sign up for the service.</t>
+          <t>Description: Your privacy policy must explain how you use and share that information (including with X).</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>service's privacy policy</t>
+          <t xml:space="preserve">Your privacy policy  </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> display</t>
+          <t xml:space="preserve">  must explain  </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> before allowing users to download, install, or sign up for the service</t>
+          <t xml:space="preserve">  how you use and share that information (including with X)  </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: X</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2260,102 +2000,86 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must include the information collected from users, how it is used and shared (including with X), and contact details for inquiries about their information.</t>
+          <t>Description: Your privacy policy must provide contact information for people to inquire and request regarding their information.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> privacy policy  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must include  </t>
+          <t xml:space="preserve"> provide </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  information collected from users, how it is used and shared (including with X), contact details  </t>
+          <t xml:space="preserve"> contact information for people to inquire and request regarding their information </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  shared with X  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for inquiries about their information  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Third party is: X</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.4 Developers shall disclose and ensure that Relevant Service-related privacy policies are easily viewable to anyone at any time (including before and after a user starts to use the Relevant Service).隐私政策的揭示要清晰可见</t>
+          <t>You must display your service’s privacy policy to people before they are permitted to download, install, or sign up to your service. It must disclose at least the following information:&amp;#10;&amp;#10;The information that you collect from people who use your service&amp;#10;&amp;#10;How you use and share that information (including with X)&amp;#10;&amp;#10;How people can contact you with inquiries and requests regarding their information&amp;#10;&amp;#10;Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X’s Privacy Policy and the privacy policy of our other services and corporate affiliates. You must cease your access to the X API and the use of all X Content if you are unable to comply with your and/or X’s Privacy Policy</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Description: Developers must ensure that privacy policies related to the Relevant Service are easily accessible at all times, including before and after a user begins to use the service.</t>
+          <t>Description: Your privacy policy must be consistent with all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Developers </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ensure </t>
+          <t xml:space="preserve"> must be consistent with </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> privacy policies related to the Relevant Service </t>
+          <t xml:space="preserve"> all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> easily accessible at all times, including before and after a user begins to use the service </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2368,30 +2092,18 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>line</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
+          <t>2.4 Developers shall disclose and ensure that Relevant Service-related privacy policies are easily viewable to anyone at any time (including before and after a user starts to use the Relevant Service)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2401,104 +2113,92 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.</t>
+          <t>Description: Relevant Service-related privacy policies can only be implemented if they are disclosed by developers</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> you  </t>
+          <t xml:space="preserve">Relevant Service-related privacy policies  </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must have  </t>
+          <t xml:space="preserve">  can only be implemented  </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">  they are disclosed  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t xml:space="preserve">  by developers  </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  to clearly inform end users about the personal data collected and how it is used and shared  </t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  including for advertising purposes, with WeChat or Weixin and other third parties</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Third party is: WeChat or Weixin and other third parties</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>line</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
+          <t>2.4 Developers shall disclose and ensure that Relevant Service-related privacy policies are easily viewable to anyone at any time (including before and after a user starts to use the Relevant Service)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.</t>
+          <t>Description: Privacy policies can only be considered compliant if they are easily viewable to anyone at any time</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The privacy policy  </t>
+          <t xml:space="preserve">Privacy policies  </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">   comply with and be consistent with   </t>
+          <t xml:space="preserve">  can be considered  </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  </t>
+          <t xml:space="preserve">  compliant  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t xml:space="preserve">  easily viewable to anyone at any time </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t xml:space="preserve">  NULL</t>
@@ -2506,53 +2206,45 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>line</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
+          <t>2.4 Developers shall disclose and ensure that Relevant Service-related privacy policies are easily viewable to anyone at any time (including before and after a user starts to use the Relevant Service)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Description: If using the Platform to process Platform Data, a privacy policy must be provided and made publicly available and easily accessible.</t>
+          <t>Description: Privacy policies can only be considered compliant if they are available before and after a user starts to use the Relevant Service</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">Privacy policies  </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must be provided and made  </t>
+          <t xml:space="preserve">  can be considered  </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  publicly available and easily accessible  </t>
+          <t xml:space="preserve">  compliant  </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2562,7 +2254,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  available before and after a user starts to use the Relevant Service  </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2570,60 +2262,48 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>wechat</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
+          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Description: Publicly available links to the privacy policy must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.</t>
+          <t>Description: Your application or service can only collect, store, process or use data of end users (including any personal data or information) if it complies with the privacy policy and other requirements</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Publicly available links  </t>
+          <t xml:space="preserve">Your application or service  </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must be maintained  </t>
+          <t xml:space="preserve">  can collect, store, process or use  </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the privacy policy  </t>
+          <t xml:space="preserve">  data of end users (including any personal data or information)  </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in the privacy policy field in the App Dashboard settings and in any applicable App Store  </t>
+          <t xml:space="preserve">  from end users  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2633,33 +2313,25 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve">  if it complies with the privacy policy and other requirements</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>wechat</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
+          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2669,129 +2341,109 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Description: Ensure that the links to the privacy policy remain current and up to date.</t>
+          <t>Description: You must establish a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The privacy policy  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Ensure    </t>
+          <t xml:space="preserve"> establish a privacy policy </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    links to the privacy policy remain current and up to date    </t>
+          <t xml:space="preserve"> a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> from end users </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>wechat</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
+          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Description: The developer must provide a full and accurate disclosure to their End Users regarding the privacy practices and policies applicable to the Application.</t>
+          <t>Description: Your privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The developer  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve"> must comply with and be consistent with </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a full and accurate disclosure  </t>
+          <t xml:space="preserve"> the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to their End Users  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  regarding the privacy practices and policies applicable to the Application  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: WeChat or Weixin</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>snap creative kit</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
+          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2801,32 +2453,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Description: You must provide a privacy policy for your Application that is easily accessible and linked from the Application.</t>
+          <t>Description: You can only use the Platform to Process Platform Data if you provide and comply with a publicly available and easily accessible privacy policy.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">You  </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve">  use the Platform  </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  your Application  </t>
+          <t xml:space="preserve">  Process Platform Data  </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  easily accessible and linked from the Application  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  comply with a publicly available and easily accessible privacy policy  </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2834,30 +2486,18 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>snap creative kit</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
+          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2867,67 +2507,51 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy.</t>
+          <t>Description: Your privacy policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> your privacy policy  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must incorporate by reference and link  </t>
+          <t xml:space="preserve"> must comply with </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the Snap Privacy Policy  </t>
+          <t xml:space="preserve"> applicable law and regulations </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>need to provide a link</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Third party is: Snap</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>snap creative kit</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
+          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2937,167 +2561,139 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must explain how and why the Application uses, processes, and shares user information with Snap and other third parties.</t>
+          <t>Description: You must maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The privacy policy  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must explain  </t>
+          <t xml:space="preserve"> must maintain publicly available links </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  how and why the Application uses, processes, and shares user information  </t>
+          <t xml:space="preserve"> to your privacy policies </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  with Snap and other third parties  </t>
+          <t xml:space="preserve"> in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> to ensure the links remain current and up to date </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Third party is: Snap</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognize dopt-out from online behavioral advertising and provide California users the ability toopt-out from the sale of their </t>
+          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.</t>
+          <t>Description: Your disclosure to End Users can only be complete and accurate if you provide all necessary information about the data collection and use practices associated with the Application.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The privacy policy  </t>
+          <t xml:space="preserve">Your disclosure to End Users </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must explain  </t>
+          <t xml:space="preserve"> can be complete and accurate </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the use, collection, and sharing of mobile device advertising identifiers and other personal information  </t>
+          <t xml:space="preserve"> all necessary information about the data collection and use practices associated with the Application </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  by the company and its third-party service providers, vendors, or partners  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  such as Tapjoy  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Third party is: Tapjoy</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognize dopt-out from online behavioral advertising and provide California users the ability toopt-out from the sale of their </t>
+          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.</t>
+          <t>Description: Your privacy practices and policies applicable to the Application can only be disclosed if you provide clear and prominent notice to End Users about the collection, use, sharing, and storage of their personal information.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">Your privacy practices and policies  </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  cover  </t>
+          <t xml:space="preserve">  can only be disclosed  </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the use of personal information  </t>
+          <t xml:space="preserve">  the collection, use, sharing, and storage of their personal information  </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for behaviorally targeted online advertising  </t>
+          <t xml:space="preserve">  from End Users  </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3110,200 +2706,164 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognize dopt-out from online behavioral advertising and provide California users the ability toopt-out from the sale of their </t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must include an opt-out link that directs users to an industry-recognized platform for opting out of online behavioral advertising.</t>
+          <t>Description: Your Application can only collect and process user data if you provide and adhere to a published privacy policy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t xml:space="preserve">Your Application </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> collect and process </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> user data </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from user </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> if you provide and adhere to a published privacy policy</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognize dopt-out from online behavioral advertising and provide California users the ability toopt-out from the sale of their </t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide California users with the ability to opt-out from the sale of their personal information.</t>
+          <t>Description: Your privacy policy must be easily accessible and conspicuously linked from the Application</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t xml:space="preserve">Your privacy policy </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must be easily accessible and conspicuously linked </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from the Application </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from user </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.</t>
+          <t>Description: Your privacy policy must incorporate by reference and link to the Snap Privacy Policy</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  you  </t>
+          <t xml:space="preserve">Your privacy policy  </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  notifying  </t>
+          <t xml:space="preserve">  must incorporate by reference and link  </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  your users  </t>
+          <t xml:space="preserve">  the Snap Privacy Policy  </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  about the data collection and disclosure practices associated with the use of our Services  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3316,30 +2876,18 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3349,98 +2897,86 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Description: You must obtain user consent for the data collection and use practices related to our Services.</t>
+          <t>Description: Your privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  You  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  obtain  </t>
+          <t xml:space="preserve"> must clearly and accurately describe </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  user consent  </t>
+          <t xml:space="preserve"> what user information is accessed, collected, and stored by you and your Application </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for the data collection and use practices related to our Services  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Description: This includes obtaining consent for rewarding users for their engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.</t>
+          <t>Description: Your privacy policy must explain how and why the user information is used, processed, and shared with Snap and other third parties</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> must explain </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> how and why user information is used, processed, and shared </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> with Snap and other third parties </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3450,168 +2986,135 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+          <t>Third party is: Snap and other third parties</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
+</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Description: Partner must post a privacy policy in their App that complies with all applicable rules, laws, acts, and regulations.</t>
+          <t>Description: Your use, collection, and sharing of mobile device advertising identifiers and other personal information can only be implemented if your privacy policy describes these practices.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Partner  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  post  </t>
+          <t xml:space="preserve"> describes </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve"> your use, collection, and sharing of mobile device advertising identifiers and other personal information </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in their App  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  complies with all applicable rules, laws, acts, and regulations  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: NULL</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
+</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.</t>
+          <t>Description: Your privacy policy must include the use of information for behaviorally targeted online advertising.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The privacy policy  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must disclose  </t>
+          <t xml:space="preserve"> include </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  any information that will be provided to ironSource or is accessible to ironSource  </t>
+          <t xml:space="preserve"> the use of information for behaviorally targeted online advertising </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in connection with the Services  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  as detailed in the IronSource Mobile Privacy Policy  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Third party is: ironSource</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
+</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3621,7 +3124,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.</t>
+          <t>Description: Your privacy policy must provide an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3656,7 +3159,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>need to mention opt-out</t>
+          <t>mention opt-out</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3664,125 +3167,114 @@
           <t>need link to guide how to opt-out</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
+</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Description: You must provide clear, meaningful, and prominent notices to individuals regarding the collection, disclosure, use, and security of their personal data.</t>
+          <t>Description: You must provide California users the ability to opt-out from the sale of their information.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  You  </t>
+          <t xml:space="preserve">NULL </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  clear, meaningful, and prominent notices  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  regarding the collection, disclosure, use, and security of their personal data  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+          <t>mention opt-out : sale of their information</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Description: You must obtain necessary consent or permission from individuals before collecting their personal data.</t>
+          <t>Description: Your use of our Services can only be implemented if you provide notice to your users of the data collection and disclosure practices involved and obtain their consent.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  You  </t>
+          <t xml:space="preserve">Your use of our Services  </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  obtain necessary consent or permission  </t>
+          <t xml:space="preserve">  can only be implemented  </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  personal data  </t>
+          <t xml:space="preserve">  provide notice to your users of the data collection and disclosure practices involved and obtain their consent  </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from individuals  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  before collecting  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3790,96 +3282,76 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.</t>
+          <t>Description: Using our Services is only permissible if you provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  complies with  </t>
+          <t xml:space="preserve"> provide </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  all applicable privacy and data protection laws and regulations  </t>
+          <t xml:space="preserve"> appropriate notices to users of your application(s) </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> about data collection and use practices related to your use of our Services </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: NULL</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3889,27 +3361,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must explain that Services Data can be processed in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy, as applicable.</t>
+          <t>Description: Our Services can only be used if you obtain user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy  </t>
+          <t xml:space="preserve">Our Services  </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must explain  </t>
+          <t xml:space="preserve">  can only be used  </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Services Data can be processed  </t>
+          <t xml:space="preserve">  user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising  </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy  </t>
+          <t xml:space="preserve">  from user  </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3919,37 +3391,21 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  as applicable</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Third party is: Unity Privacy Policy, ironSource Privacy Policy</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3959,102 +3415,86 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must notify users of your use of tracking technologies and provide a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.</t>
+          <t>Description: The Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The privacy policy  </t>
+          <t xml:space="preserve">The Partner  </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must notify  </t>
+          <t xml:space="preserve">  must post  </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  users of your use of tracking technologies  </t>
+          <t xml:space="preserve">  a privacy policy  </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  in their App  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide a link to the Unity Privacy Policy or ironSource Privacy Policy  </t>
+          <t xml:space="preserve">  adheres to all applicable rules, laws, acts, and regulations  </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  as applicable</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>need to provide a link</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Third party is: Unity Privacy Policy or ironSource Privacy Policy</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.</t>
+          <t>Description: Any information relating to End Users that will be provided or is accessible to ironSource must be legally disclosed in the privacy policy</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">privacy policy </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> must be legally disclosed </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> any information relating to End Users that will be provided or is accessible to ironSource </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4064,133 +3504,117 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
+          <t>Third party is: ironSource</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Description: The user must have a privacy policy that is clearly labeled and easily accessible at all times when using the Services.</t>
+          <t>Description: The privacy policy should include an opt-out mechanism for End Users regarding targeted ads based on their behavior and interests</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  is labeled and accessible  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  when using the Services</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
+          <t>mention opt-out : targeted ads based on their behavior and interests</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>need link to guide how to opt-out</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data stored on, accessed on, or collected from end users' devices.</t>
+          <t>Description: The Partner confirms that their privacy policy is consistent with the IronSource Mobile Privacy Policy</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">The Partner  </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve">  confirms  </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  clear and comprehensive information about cookies, device-specific information, location information, and other data  </t>
+          <t xml:space="preserve">  their privacy policy is consistent with the IronSource Mobile Privacy Policy  </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to end users  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  stored on, accessed on, or collected from end users' devices  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4200,53 +3624,45 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: IronSource Mobile Privacy Policy</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Description: The policy should include information about end users' options for cookie management.</t>
+          <t>Description: A privacy policy making appropriate disclosures to End-Users must be maintained, displayed and adhered to at all times.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The policy  </t>
+          <t xml:space="preserve">A privacy policy  </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  include information  </t>
+          <t xml:space="preserve">  making appropriate disclosures  </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  end users' options for cookie management  </t>
+          <t xml:space="preserve">  End-Users  </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4264,30 +3680,18 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AdMob/AdSense</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4297,98 +3701,86 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.</t>
+          <t>Description: Your privacy policy must comply with all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The Properties  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  have  </t>
+          <t xml:space="preserve"> must comply with </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve"> all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  clearly labeled and easily accessible  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AdMob/AdSense</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must inform end users about their options for managing cookies.</t>
+          <t>Description: Your privacy policy must explain that Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> must explain </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4398,98 +3790,78 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
+          <t>Third party is: Unity Privacy Policy and ironSource Privacy Policy</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.</t>
+          <t>Description: Your privacy policy must disclose the use of tracking pixels, agents or other technologies that collect, use, share and store data about end users.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Developer  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  post  </t>
+          <t xml:space="preserve"> must disclose </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy notice  </t>
+          <t xml:space="preserve"> the use of tracking pixels, agents or other technologies that collect, use, share and store data </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  within the Developer App  </t>
+          <t xml:space="preserve"> about end users </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  meets the transparency and information requirements of the Privacy Requirements and the Agreement  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: NULL</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4499,636 +3871,552 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.</t>
+          <t>Description: Your privacy policy must include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The notice  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must include  </t>
+          <t xml:space="preserve"> must include </t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  </t>
+          <t xml:space="preserve"> a link to the Unity Privacy Policy or ironSource Privacy Policy </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Third party is: Vungle and its Demand Partner</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
+          <t>Third party is: Unity Privacy Policy or ironSource Privacy Policy</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Description: The notice must disclose that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.</t>
+          <t>Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The notice  </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must disclose  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  that third parties may collect or receive Personal Data and use it  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for measurement services and targeted ads  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>NO link</t>
+          <t>mention opt out</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.</t>
+          <t>Description: You can use the Services only if you have a clearly labeled and easily accessible privacy policy</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t xml:space="preserve">You  </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  can use  </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  the Services  </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MoPub</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Description: The Publisher must post a privacy policy that is both conspicuous and legally adequate on each application and/or service within the Publisher Network.</t>
+          <t>Description: Your privacy policy must comply with all applicable laws</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The Publisher  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  post  </t>
+          <t xml:space="preserve"> must comply </t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve"> with all applicable laws </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  on each application and/or service within the Publisher Network  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MoPub</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub for the purpose of personalized advertising.</t>
+          <t>Description: You must provide end users with clear and comprehensive information about cookies</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must disclose  </t>
+          <t xml:space="preserve"> provide </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the collection of Service Data by third parties such as MoPub  </t>
+          <t xml:space="preserve"> clear and comprehensive information about cookies </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> to end users </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for the purpose of personalized advertising  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Third party is: MoPub</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>start.io</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6.1. Publisher will, and will be solely responsible to publish the App on the applicable app store (e.g., Google Play, AppStore, etc.) (“App Store”) and to comply with the App Stores’ requirements, terms of use and guidelines (“App Store Terms”) including without limitations with regards to obtaining user consent, disclosing data collection practices and options to opt-out. StartApp does not represent and warrant that use of the Service will comply with the App Store Terms, and StartApp shall have no liability for any costs, or damages incurred to the Publisher as a result of such noncompliance. Using the Service may require additional permissions from End Users that the App may not originally require.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Description: The Publisher must comply with the App Store Terms, including obtaining user consent, disclosing data collection practices, and providing options to opt-out.</t>
+          <t>Description: You must provide end users with clear and comprehensive information about device-specific information</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t xml:space="preserve">You </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> provide </t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> clear and comprehensive information about device-specific information </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> to end users </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>need to mention opt-out</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentry</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What data does Sentry collect from users of my app?&amp;#10;Sentry collects only the data that you configure to be sent to Sentry. This is typically the occurrence of software bugs (Errors) or API calls, page loads, or similar requests and responses from your apps (Transactions). &amp;#10;Does that data include any personally identifiable information (PII)?&amp;#10;Data collected by Sentry does not, by default, include any PII. However, you can augment the data sent to Sentry with additional context and metadata, including user names, email addresses, or by attaching files such as logs or crash reports.&amp;#10;What does Sentry do with the data it collects?&amp;#10;Sentry processes the data you send to it to provide our application monitoring service to you. Sentry What do I need to disclose to Google Play?&amp;#10;You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Description: Users must disclose all data collection practices in their app's privacy policy, including the data sent to Sentry.</t>
+          <t>Description: You must provide end users with clear and comprehensive information about location information</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Users  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  disclose  </t>
+          <t xml:space="preserve"> provide </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  all data collection practices  </t>
+          <t xml:space="preserve"> clear and comprehensive information about location information </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in their app's privacy policy  </t>
+          <t xml:space="preserve"> to end users </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  including the data sent to Sentry  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Description: Developer must ensure that User Data is handled in compliance with a privacy policy.</t>
+          <t>Description: You must provide end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Developer  </t>
+          <t xml:space="preserve">You </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ensure  </t>
+          <t xml:space="preserve"> provide </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  User Data is handled  </t>
+          <t xml:space="preserve"> clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in compliance with a privacy policy  </t>
+          <t xml:space="preserve"> from end users' devices </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>Third party is: Services</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must be made available to Users.</t>
+          <t>Description: You must provide end users with information about their options for cookie management, as applicable</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The privacy policy  </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">    be made available  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">   NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Users  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
+          <t>mention opt-out : cookie management</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>need link to guidance how to opt-out</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.</t>
+          <t>Description: The Services can only be used if the Properties have a clearly labeled and easily accessible privacy policy</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">The Properties  </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  describe  </t>
+          <t xml:space="preserve">  have  </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  user information collected by Developer  </t>
+          <t xml:space="preserve">  a clearly labeled and easily accessible privacy policy  </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5138,7 +4426,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  clearly and accurately  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5148,226 +4436,194 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must also describe how Developer uses and shares the collected user information.</t>
+          <t>Description: The privacy policy must provide end users with clear and comprehensive information about cookies</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  describe  </t>
+          <t xml:space="preserve"> provide end users </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  how Developer uses and shares the collected user information  </t>
+          <t xml:space="preserve"> with clear and comprehensive information about cookies </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ZOOM</t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ("Your Terms"). </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Description: You must provide your own terms of service, privacy policy, and support information when submitting your App to the Zoom Marketplace.</t>
+          <t>Description: The privacy policy must provide information about device-specific information</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  you  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  provide  </t>
+          <t xml:space="preserve"> provide information </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  your own terms of service, privacy policy, and support information  </t>
+          <t xml:space="preserve"> device-specific information </t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  when submitting your App to the Zoom Marketplace  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>inMobi</t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Description: Each Party is required to have a privacy policy that is compliant with applicable privacy laws and is prominently displayed.</t>
+          <t>Description: The privacy policy must provide information about location information</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Each Party  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  have  </t>
+          <t xml:space="preserve"> provide information </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve"> location information </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  compliant with applicable privacy laws  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  prominently displayed</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>need a privacy policy</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>inMobi</t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5377,99 +4633,55 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>Description: The privacy policy must provide information about other information stored on, accessed on, or collected from end users' devices in connection with the Services</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">{#type2#,  &lt;privacy policy  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must include  </t>
+          <t xml:space="preserve"> provide information </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  </t>
+          <t xml:space="preserve"> other information stored on, accessed on, or collected from end users' devices in connection with the Services </t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  mentioning that such data will be shared with certain third parties for specific use cases  </t>
+          <t xml:space="preserve"> from end users' devices </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Third party is: certain third parties</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">privacy policy  </t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  must include  </t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  </t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  mentioning that such data will be shared with certain third parties for specific use cases  </t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>Third party is: certain third parties</t>
-        </is>
-      </c>
+          <t>Third party is: Services</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>inMobi</t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5479,7 +4691,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Description: Privacy laws such as CCPA, CPRA, and other relevant US state privacy laws may require providing sufficient notice about End Users' rights to their personal information and mechanisms for opting out of data usage.</t>
+          <t>Description: The privacy policy must include information about end users' options for cookie management</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5514,92 +4726,1266 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>need to mention opt-out</t>
+          <t>mention opt-out : cookie management</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
+          <t>need link to guidance how to opt-out</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Description: A publicly accessible privacy notice within the Developer App can only be posted, maintained, and followed if it satisfies the transparency and information requirements of the Privacy Requirements and the Agreement.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A publicly accessible privacy notice  </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  can be posted, maintained, and followed  </t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  satisfies the transparency and information requirements of the Privacy Requirements and the Agreement  </t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>type1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The privacy notice </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must satisfy </t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the transparency and information requirements </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Description: If notice cannot be provided in or around Vungle Ads, arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad must be made.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Privacy Policy </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must arrange </t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> notice within the Developer App or on the landing page of the Vungle Ad </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from user </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> to provide notice </t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> if notice cannot be provided in or around Vungle Ads</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Third party is: Vungle</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Description: The notice must state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The notice  </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  must state  </t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Third party is: third parties</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>type3-Q1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Description: The notice must include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NULL </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>mention opt-out : collection and use of information for ad targeting</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>need link to guide how to opt-out</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Description: The notice must describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The notice  </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  describe  </t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred  </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  to third parties  </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vungle</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Description: If Ad Data is protected by EU Data Protection Law, the privacy notice must include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">privacy notice  </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  must include  </t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  type of Personal Data collected, purposes of processing, categories of individuals with access, legitimate interests pursued, identity of the Controller(s), any other information  </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  required by the EU Data Protection Law  </t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Third party is: NULL</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MoPub</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Description: You can only post a privacy policy if it is conspicuous and legally adequate</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You  </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  can post  </t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  a privacy policy  </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  conspicuous and legally adequate  </t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MoPub</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Description: Your privacy policy can only be posted on each application and/or service of the Publisher Network if it is conspicuous and legally adequate</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your privacy policy  </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  can be posted  </t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  on each application and/or service of the Publisher Network  </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  if it is conspicuous and legally adequate</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MoPub</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Description: Your data collection practices can only involve third parties such as MoPub if your privacy policy discloses this collection</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your privacy policy  </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  can only involve  </t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  data collection practices  </t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  from user, share to third parties  </t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Third party is: MoPub </t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MoPub</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>type1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Description: Your data collection practices can only be for personalized advertising purposes if your policy specifies this</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your policy </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> specifies </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> data collection practices for personalized advertising </t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>start.io</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>6.1. Publisher will, and will be solely responsible to publish the App on the applicable app store (e.g., Google Play, AppStore, etc.) (“App Store”) and to comply with the App Stores’ requirements, terms of use and guidelines (“App Store Terms”) including without limitations with regards to obtaining user consent, disclosing data collection practices and options to opt-out. StartApp does not represent and warrant that use of the Service will comply with the App Store Terms, and StartApp shall have no liability for any costs, or damages incurred to the Publisher as a result of such noncompliance. Using the Service may require additional permissions from End Users that the App may not originally require.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>type3-Q1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Description: App Store Terms require obtaining user consent, disclosing data collection practices, and providing opt-out options for compliance.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>mention opt-out</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>need link to guidance how to opt-out</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sentry</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>What data does Sentry collect from users of my app?&amp;#10;Sentry collects only the data that you configure to be sent to Sentry. This is typically the occurrence of software bugs (Errors) or API calls, page loads, or similar requests and responses from your apps (Transactions). &amp;#10;Does that data include any personally identifiable information (PII)?&amp;#10;Data collected by Sentry does not, by default, include any PII. However, you can augment the data sent to Sentry with additional context and metadata, including user names, email addresses, or by attaching files such as logs or crash reports.&amp;#10;What does Sentry do with the data it collects?&amp;#10;Sentry processes the data you send to it to provide our application monitoring service to you. Sentry What do I need to disclose to Google Play?&amp;#10;You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>type1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Description: You must disclose and/or include in your app privacy policy all types of data collected through your app, including data sent to Sentry.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> disclose and/or include </t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> all types of data collected through your app, including data sent to Sentry </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dropbox</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>type1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Description: User Data can only be collected, processed, transmitted, maintained, and used if it complies with a privacy policy</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a privacy policy </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> allows </t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> User Data to be collected, processed, transmitted, maintained, and used </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> if it complies with a privacy policy</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dropbox</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Description: The privacy policy must be made available to Users</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The privacy policy </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must be made available </t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> to Users </t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from user </t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dropbox</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>type1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Description: The privacy policy must clearly and accurately describe what user information Developer collects</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The privacy policy </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must clearly and accurately describe </t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> what user information Developer collects </t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>dropbox</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Description: The privacy policy must also describe how Developer uses and shares that information</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The privacy policy  </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  must describe  </t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  how Developer uses and shares information  </t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ZOOM</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ("Your Terms"). </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Description: Your App can only be submitted to the Zoom Marketplace if you provide your terms of service, privacy policy, and support information ('Your Terms').</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your Terms  </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  can be submitted  </t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Your App  </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  to the Zoom Marketplace  </t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>inMobi</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>type1</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Description: The privacy policy should also disclose the use of third parties and cookies for attribution purposes and/or serving targeted advertisements.</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The privacy policy  </t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  should disclose  </t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  the use of third parties and cookies  </t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  for attribution purposes and/or serving targeted advertisements  </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>NO link</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Description: A privacy policy must be provided conspicuously and be adequate in accordance with applicable privacy laws.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A privacy policy </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must be provided conspicuously and be adequate </t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> in accordance with applicable privacy laws </t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>inMobi</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Description: Data collection and sharing practices can only be implemented if the privacy policy conspicuously describes the data sets collected, use cases related to personal data/information, and mentions that such data will be shared with certain third parties for applicable use cases.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">privacy policy </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> conspicuously describes </t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> data sets collected, use cases related to personal data/information, mentions data sharing </t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Third party is: certain third parties</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>inMobi</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>type3-Q1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Description: Providing sufficient notice regarding rights of End Users with regard to their personal information and clearly providing for mechanisms of Opt Out elections can only be done if You comply with certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws, if applicable to the Inventory.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>mention opt out</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>inMobi</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Description: The privacy policy must mention the use of third parties and use of cookies for attribution and/or serving targeted Advertisements.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The privacy policy </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> must mention </t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the use of third parties and use of cookies for attribution and/or serving targeted Advertisements </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL </t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Third party is: third parties</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/definition测试/【1】Tos2PP/output_Tuple.xlsx
+++ b/definition测试/【1】Tos2PP/output_Tuple.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,12 @@
           <t>type requirement2</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr"/>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr"/>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,27 +519,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Description: Customer must provide its own privacy statement or notice to its End Users</t>
+          <t>Description: Mixpanel's tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer  </t>
+          <t xml:space="preserve">Mixpanel's tracking and use of information  </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must provide  </t>
+          <t xml:space="preserve">  are governed  </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy statement or notice  </t>
+          <t xml:space="preserve">  by the Mixpanel Privacy Statement  </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to its End Users  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -548,50 +554,56 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Third party is: Mixpanel</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>amplitude</t>
+          <t>Mixpanel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Customer shall be responsible for： (b) the legality, accuracy and quality of Customer Data, including ensuring that Customer’s collection and submission of data to, and use of the Amplitude Services to process, store and transmit Customer Data, is compliant with all applicable laws and regulations as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users, including to obtain all legally required consents and permissions;</t>
+          <t>4.8 Privacy Statement. Mixpanel’s tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement, available at https://mixpanel.com/legal/privacy-policy/. The Mixpanel Privacy Statement does not cover information Mixpanel processes on Customer’s behalf in providing the Application Services and it shall be Customer’s obligation to provide Customer’s own privacy statement or notice to its End Users as well as to provide all required disclosures to and obtain all required consents from Customer’s employees and/or agents. In addition, Mixpanel may collect registration and other information about Customer as Mixpanel’s customer through Mixpanel Sites.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Description: Customer must comply with any privacy policies, agreements, or other obligations it maintains or enters into with its end users</t>
+          <t>Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer  </t>
+          <t xml:space="preserve">  The Mixpanel Privacy Statement  </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must comply with  </t>
+          <t xml:space="preserve">  is available   </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy policies, agreements, or other obligations  </t>
+          <t xml:space="preserve">  NULL    </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  with its end users  </t>
+          <t xml:space="preserve">  https://mixpanel.com/legal/privacy-policy/  </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -601,25 +613,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>amplitude</t>
+          <t>Mixpanel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Customer shall be responsible for： (b) the legality, accuracy and quality of Customer Data, including ensuring that Customer’s collection and submission of data to, and use of the Amplitude Services to process, store and transmit Customer Data, is compliant with all applicable laws and regulations as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users, including to obtain all legally required consents and permissions;</t>
+          <t>4.8 Privacy Statement. Mixpanel’s tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement, available at https://mixpanel.com/legal/privacy-policy/. The Mixpanel Privacy Statement does not cover information Mixpanel processes on Customer’s behalf in providing the Application Services and it shall be Customer’s obligation to provide Customer’s own privacy statement or notice to its End Users as well as to provide all required disclosures to and obtain all required consents from Customer’s employees and/or agents. In addition, Mixpanel may collect registration and other information about Customer as Mixpanel’s customer through Mixpanel Sites.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,51 +643,57 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Description: Customer can collect, submit, and use data only if it obtains all legally required consents and permissions</t>
+          <t>Description: It shall be Customer's obligation to provide Customer's own privacy statement or notice to its End Users</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer </t>
+          <t xml:space="preserve">  Customer's privacy statement or notice  </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> collect, submit, and use </t>
+          <t xml:space="preserve">  provide  </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> data </t>
+          <t xml:space="preserve">  Customer's own privacy statement or notice  </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve">  to its End Users  </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> if it obtains all legally required consents and permissions</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>firebase</t>
+          <t>amplitude</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>You will not and will not assist or permit any third party to pass information, hashed or otherwise, to Google that Google could use or recognize as personally identifiable information, except where permitted by, and subject to, the policies or terms of Google Analytics features made available to You, and only if, any information passed to Google for such Google Analytics feature is hashed using industry standards. You will have and abide by an appropriate Privacy Policy and will comply with all applicable laws, policies, and regulations relating to the collection of information from Users. You must post a Privacy Policy and that Privacy Policy must provide notice of Your use of cookies, identifiers for mobile devices (e.g., Android Advertising Identifier or Advertising Identifier for iOS) or similar technology used to collect data. You must disclose the use of Google Analytics, and how it collects and processes data. This can be done by displaying a prominent link to the site "How Google uses information from sites or apps that use our services", (located at www.google.com/policies/privacy/partners/, or any other URL that Google may provide from time to time). You will use commercially reasonable efforts to ensure that a User is provided with clear and comprehensive information about, and consents to, the storing and accessing of cookies or other information on the User’s device where such activity occurs in connection with the Service and where providing such information and obtaining such consent is required by law.</t>
+          <t>Customer shall be responsible for： (b) the legality, accuracy and quality of Customer Data, including ensuring that Customer’s collection and submission of data to, and use of the Amplitude Services to process, store and transmit Customer Data, is compliant with all applicable laws and regulations as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users, including to obtain all legally required consents and permissions;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -683,32 +703,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Description: You must have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.</t>
+          <t>Description: as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t>privacy policies, agreements or other obligations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must have and abide by </t>
+          <t xml:space="preserve"> maintain or enter into</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> an appropriate Privacy Policy </t>
+          <t xml:space="preserve"> privacy policies, agreements or other obligations</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from Users </t>
+          <t xml:space="preserve"> from user</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to comply with all applicable laws, policies, and regulations regarding the collection of information </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -718,6 +738,12 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -732,37 +758,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Description: Your Privacy Policy must disclose Your use of cookies, mobile device identifiers, or similar technology used to collect data.</t>
+          <t>Description: You will have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your Privacy Policy </t>
+          <t xml:space="preserve">  Privacy Policy  </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must disclose </t>
+          <t xml:space="preserve">  complies with  </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Your use of cookies, mobile device identifiers, or similar technology used to collect data </t>
+          <t xml:space="preserve">  applicable laws, policies, and regulations  </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  regarding the collection of information from Users  </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL  </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -770,12 +796,14 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -790,60 +818,62 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Description: You must disclose the use of Google Analytics and how it collects and processes data, including by providing a prominent link to Google's privacy policy for partners.</t>
+          <t>Description: You must post a Privacy Policy that provides notice of Your use of cookies, mobile device identifiers, or similar technology used to collect data.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t>Privacy Policy</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must disclose </t>
+          <t xml:space="preserve"> provides notice of</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the use of Google Analytics and how it collects and processes data </t>
+          <t xml:space="preserve"> Your use of cookies, mobile device identifiers, or similar technology used to collect data</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> providing a prominent link to Google's privacy policy for partners</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Third party is: Google Analytics</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>yandex</t>
+          <t>firebase</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
+          <t>You will not and will not assist or permit any third party to pass information, hashed or otherwise, to Google that Google could use or recognize as personally identifiable information, except where permitted by, and subject to, the policies or terms of Google Analytics features made available to You, and only if, any information passed to Google for such Google Analytics feature is hashed using industry standards. You will have and abide by an appropriate Privacy Policy and will comply with all applicable laws, policies, and regulations relating to the collection of information from Users. You must post a Privacy Policy and that Privacy Policy must provide notice of Your use of cookies, identifiers for mobile devices (e.g., Android Advertising Identifier or Advertising Identifier for iOS) or similar technology used to collect data. You must disclose the use of Google Analytics, and how it collects and processes data. This can be done by displaying a prominent link to the site "How Google uses information from sites or apps that use our services", (located at www.google.com/policies/privacy/partners/, or any other URL that Google may provide from time to time). You will use commercially reasonable efforts to ensure that a User is provided with clear and comprehensive information about, and consents to, the storing and accessing of cookies or other information on the User’s device where such activity occurs in connection with the Service and where providing such information and obtaining such consent is required by law.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -853,55 +883,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Description: You must provide a legally adequate privacy notice to End Users about it</t>
+          <t>Description: You must disclose the use of Google Analytics and how it collects and processes data, which can be done by linking to Google's privacy policy for partners.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">You  </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must provide </t>
+          <t xml:space="preserve">  must disclose  </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a legally adequate privacy notice </t>
+          <t xml:space="preserve">  the use of Google Analytics and how it collects and processes data  </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to End Users </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  by linking to Google's privacy policy for partners</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve"> need LINK to : Google's privacy policy for partners </t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
+          <t>yandex</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
+          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -911,81 +947,87 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must comply with all applicable laws and industry standards.</t>
+          <t>Description: You must make the End Users aware that certain End User Information will be available to You</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">  You  </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must comply </t>
+          <t xml:space="preserve">  make aware  </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> with all applicable laws and industry standards </t>
+          <t xml:space="preserve">  End Users  </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  certain End User Information  </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
+          <t>yandex</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
+          <t>7.1.1. If End Users provide You with, or You gather or access End User Information, You must make the End Users aware that certain End User Information will be available to You, and You must provide a legally adequate privacy notice to End Users about it, obtain the End User’s permission to gather and use End User Information and ensure the protection of such End User Information.&amp;#10;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must be clearly and conspicuously posted within your application, in any store, and on any website where the application may be acquired.</t>
+          <t>Description: You must provide a legally adequate privacy notice to End Users about it</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">a legally adequate privacy notice </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must be posted </t>
+          <t xml:space="preserve"> provide to </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> within your application, in any store, and on any website where the application may be acquired </t>
+          <t xml:space="preserve"> End Users </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1000,6 +1042,12 @@
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1014,50 +1062,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must provide notice of your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data about end users.</t>
+          <t>Description: You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy  </t>
+          <t xml:space="preserve">  you  </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must provide notice  </t>
+          <t xml:space="preserve">   abide by   </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data  </t>
+          <t xml:space="preserve">   a privacy policy  </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  about end users  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  complies with all applicable laws and industry standards  </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1072,32 +1122,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data.</t>
+          <t>Description: You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy  </t>
+          <t xml:space="preserve">  You  </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must contain  </t>
+          <t xml:space="preserve">  post  </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a link to Flurry锟斤拷s Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry锟斤拷s use of User Data  </t>
+          <t xml:space="preserve">  a privacy policy  </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  within your application, in any store, and on any website where the application may be acquired  </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1107,15 +1157,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Third party is: Flurry</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1130,64 +1182,62 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Description: You must advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources.</t>
+          <t>Description: That policy must provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">NULL </t>
+          <t xml:space="preserve">That policy </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> provide notice of </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> about end users </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NULL </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>mention opt-out : Limit Ad Tracking</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>onesignal</t>
+          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1197,32 +1247,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Description: Licensee must publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA</t>
+          <t>Description: Policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Licensee  </t>
+          <t xml:space="preserve">Policy  </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must publish  </t>
+          <t xml:space="preserve">  must contain  </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy policies and disclosures  </t>
+          <t xml:space="preserve">  a link to Flurry's Privacy Policy and describe how visitors may learn more  </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  for the Properties  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  comply with applicable law and the terms of this EULA  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1232,55 +1282,61 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>need LINK to : Flurry's Privacy Policy</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>onesignal</t>
+          <t>flurry（com.flurry.android）&amp;#10;&amp;#10;&amp;#10;&amp;#10;&amp;#10;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
+          <t>&amp;#10;Privacy Policy. &amp;#10;You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards and that you will comply with all applicable laws relating to the collection of information from end users of your applications.&amp;#10;&amp;#10;You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired (when and where it is technically possible).&amp;#10;&amp;#10;That policy must: &amp;#10;provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data, including precise location data, about end users of your applications with Flurry (whether by you, Flurry, your Ad Partners or Attribution Partners); and&amp;#10;contain a link to Flurry’s Privacy Policy and a statement that describes how visitors may learn more about the choices offered in connection with Flurry’s use of User Data (as applicable), including advising users who wish to opt-out that they may opt-out on a device by device basis by enabling “Limit Ad Tracking” on their device and posting an active link to:&amp;#10;&amp;#10;Flurry’s Privacy Dashboard at https://www.verizonmedia.com/policies/us/en/verizonmedia/privacy/dashboard/index.html; &amp;#10;&amp;#10;http://www.networkadvertising.org/managing/opt_out.asp;&amp;#10;https://www.networkadvertising.org/mobile-choices;&amp;#10;http://www.aboutads.info/choices/ (or the appropriate link for the country available on https://www.verizonmedia.com/policies/xw/en/verizonmedia/privacy/optout/ -- if you use the Services outside the United States)&amp;#10;&amp;#10;-------------------------------------------------------------------------------------&amp;#10;You agree to obtain any and all end-user consents required by applicable law before you use the Services. You agree to comply with all applicable laws, policies, and regulations relating to the collection, usage and sharing of information from users.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Description: The privacy policies must clearly disclose that the SDK Information will be collected and specify its usage as set forth in Section 5</t>
+          <t>Description: Advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policies </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must clearly disclose </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the SDK Information will be collected and specify its usage </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> as set forth in Section 5 </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1290,10 +1346,20 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>mention opt-out : Limit Ad Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>need link to guide how to opt-out</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1303,42 +1369,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
+          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Description: A privacy policy can only be posted on a website if it describes how the party collects, uses, and shares information.</t>
+          <t>Description: Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">A privacy policy  </t>
+          <t xml:space="preserve">  Licensee  </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can be posted  </t>
+          <t xml:space="preserve">  publish  </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  how the party collects, uses, and shares information  </t>
+          <t xml:space="preserve">  privacy policies and disclosures  </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  for the Properties  </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  comply with applicable law and the terms of this EULA  </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1346,12 +1412,14 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Third party is: the party</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1361,59 +1429,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
+          <t>6.Privacy Compliance. The Parties agree to comply with all applicable privacy laws, and each respective party agrees to perform the following obligations:&amp;#10;&amp;#10;Licensee is responsible for obtaining all applicable consents required to enable OneSignal to collect information from End User’s device or browser. Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA, including, but not limited to, clearly disclosing that the SDK Information will be collected and how it may be used, as set forth in Section 5 above.&amp;#10;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Description: A privacy policy can only be posted on a website if it provides information about how an End User can opt out of interest-based advertising.</t>
+          <t>Description: The privacy policies must include clear disclosures that the SDK Information will be collected and how it may be used, as set forth in Section 5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">  The privacy policies  </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  include clear disclosures  </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  the SDK Information will be collected and how it may be used  </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  as set forth in Section 5  </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>mention opt out: interest-based advertising</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1428,37 +1494,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Description: The opt-out information can only be provided if it includes methods for online behavioral or mobile cross-app advertising.</t>
+          <t>Description: each party shall at all times post a privacy policy on its website</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">each party </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> post </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> a privacy policy </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> on its website </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1466,56 +1532,54 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>mention opt out: online behavioral or mobile cross-app advertising</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>onesignal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
+          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Description: Your Stripe Application can only be made available to the Business User if the privacy notice or privacy policy is readily accessible</t>
+          <t>Description: the privacy policy describes how it collects, uses and shares information</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your Stripe Application  </t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can be made available  </t>
+          <t xml:space="preserve">  describes  </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  privacy notice or privacy policy  </t>
+          <t xml:space="preserve">  how it collects, uses and shares information  </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from user  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1528,115 +1592,95 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Third party is: Stripe</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>onesignal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
+          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Description: This includes providing a link in your Stripe App listing in the Stripe Apps Marketplace</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your privacy policy </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> providing a link </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> in your Stripe App listing in the Stripe Apps Marketplace </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> share to Stripe Apps Marketplace </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Third party is: Stripe Apps Marketplace</t>
-        </is>
-      </c>
+          <t>Description: the privacy policy provides information about how an End User can opt out of interest-based advertising</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RevenuCat</t>
+          <t>onesignal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
+          <t>each party shall at all times post a privacy policy on its website that describes how it collects, uses and shares information, and that provides information about how an End User can opt out of interest-based advertising (e.g., online behavioral or mobile cross-app advertising).&amp;#10;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Description: Customer's data collection and use practices can only be implemented if all necessary disclosures are made to, and consents and authorizations are obtained from, Customer's users.</t>
+          <t>Description: the opt-out information includes online behavioral or mobile cross-app advertising</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer's privacy policy </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must implement data collection and use practices </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> necessary disclosures, consents and authorizations </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from Customer's users </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1644,66 +1688,82 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>mention opt out : online behavioral or mobile cross-app advertising</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RevenuCat</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
+          <t>(2) make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User, including via a link in your Stripe App listing in the Stripe Apps Marketplace;&amp;#10;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Description: RevenueCat's and Stripe's processing of personally identifiable information relating to users can only take place if Customer has made all necessary disclosures to, and obtained consents and authorizations from, its users.</t>
+          <t>Description: make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer  </t>
+          <t xml:space="preserve">privacy notice or privacy policy </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  has made  </t>
+          <t xml:space="preserve"> make applicable </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  all necessary disclosures to, and obtained consents and authorizations from, its users  </t>
+          <t xml:space="preserve"> Stripe Application </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> to ensure compliance with Stripe's requirements </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Third party is: RevenueCat and Stripe</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1718,108 +1778,112 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Description: Customer's privacy policy must disclose RevenueCat's and Stripe's processing of such information in a reasonable and industry-standard manner.</t>
+          <t>Description: including, without limitation, by disclosing RevenueCat's and Stripe's processing of such information in Customer's privacy policy in a reasonable and industry-standard manner</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer's privacy policy  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must disclose  </t>
+          <t xml:space="preserve"> disclose </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RevenueCat's and Stripe's processing of such information  </t>
+          <t xml:space="preserve"> RevenueCat's and Stripe's processing of such information </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> in Customer's privacy policy </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in a reasonable and industry-standard manner  </t>
+          <t xml:space="preserve"> in a reasonable and industry-standard manner </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Third party is: RevenueCat and Stripe</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RevenuCat</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.2 Necessary Disclosures and Consents. Customer will make all disclosures to, and procure all necessary consents and authorizations from, Customer’s users as are reasonably necessary or appropriate for RevenueCat’s performance of the Services, including without limitation: (i) RevenueCat’s and Stripe’s processing of personally identifiable information relating to such users, including, without limitation, by disclosing RevenueCat’s and Stripe’s processing of such information in Customer’s privacy policy in a reasonable and industry-standard manner.&amp;#10;</t>
+          <t>You must display your service’s privacy policy to people before they are permitted to download, install, or sign up to your service. It must disclose at least the following information:&amp;#10;&amp;#10;The information that you collect from people who use your service&amp;#10;&amp;#10;How you use and share that information (including with X)&amp;#10;&amp;#10;How people can contact you with inquiries and requests regarding their information&amp;#10;&amp;#10;Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X’s Privacy Policy and the privacy policy of our other services and corporate affiliates. You must cease your access to the X API and the use of all X Content if you are unable to comply with your and/or X’s Privacy Policy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Description: Customer must make all necessary disclosures in a reasonable and industry-standard manner.</t>
+          <t>Description: You must display your service's privacy policy to people before they are permitted to download, install, or sign up to your service.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer </t>
+          <t xml:space="preserve">Your service's privacy policy </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> make all necessary disclosures </t>
+          <t xml:space="preserve"> display to people </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> in a reasonable and industry-standard manner </t>
+          <t xml:space="preserve"> privacy policy </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t xml:space="preserve"> before they are permitted to download, install, or sign up to your service </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NULL </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1834,37 +1898,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Description: People can only download, install, or sign up to your service if your service's privacy policy is displayed to them.</t>
+          <t>Description: Your privacy policy must disclose at least the following information: The information that you collect from people who use your service.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">your service's privacy policy </t>
+          <t xml:space="preserve">  privacy policy  </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is displayed </t>
+          <t xml:space="preserve">  disclose  </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> People can only download, install, or sign up to your service </t>
+          <t xml:space="preserve">  information that you collect from people who use your service  </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1874,6 +1938,12 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1888,12 +1958,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must disclose the information that you collect from people who use your service.</t>
+          <t>Description: How you use and share that information (including with X).</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1903,22 +1973,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must disclose </t>
+          <t xml:space="preserve"> must describe </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the information that you collect from people who use your service </t>
+          <t xml:space="preserve"> how you use and share information (including with X) </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> to X </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1926,8 +1996,18 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Third party is: X</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1942,50 +2022,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must explain how you use and share that information (including with X).</t>
+          <t>Description: How people can contact you with inquiries and requests regarding their information.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy  </t>
+          <t xml:space="preserve">How people can contact you </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must explain  </t>
+          <t xml:space="preserve"> inquire and request </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  how you use and share that information (including with X)  </t>
+          <t xml:space="preserve"> their information </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Third party is: X</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2005,32 +2087,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must provide contact information for people to inquire and request regarding their information.</t>
+          <t>Description: Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">  Your privacy policy  </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide </t>
+          <t xml:space="preserve">  must be  </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> contact information for people to inquire and request regarding their information </t>
+          <t xml:space="preserve">  consistent with all applicable laws  </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates  </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2040,41 +2122,47 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>twitter</t>
+          <t>line</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>You must display your service’s privacy policy to people before they are permitted to download, install, or sign up to your service. It must disclose at least the following information:&amp;#10;&amp;#10;The information that you collect from people who use your service&amp;#10;&amp;#10;How you use and share that information (including with X)&amp;#10;&amp;#10;How people can contact you with inquiries and requests regarding their information&amp;#10;&amp;#10;Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X’s Privacy Policy and the privacy policy of our other services and corporate affiliates. You must cease your access to the X API and the use of all X Content if you are unable to comply with your and/or X’s Privacy Policy</t>
+          <t>2.4 Developers shall disclose and ensure that Relevant Service-related privacy policies are easily viewable to anyone at any time (including before and after a user starts to use the Relevant Service)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must be consistent with all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.</t>
+          <t>Description: Developers shall disclose Relevant Service-related privacy policies</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">Developers </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must be consistent with </t>
+          <t xml:space="preserve"> disclose </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates </t>
+          <t xml:space="preserve"> Relevant Service-related privacy policies </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2094,6 +2182,12 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2108,32 +2202,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Description: Relevant Service-related privacy policies can only be implemented if they are disclosed by developers</t>
+          <t>Description: Privacy policies must be easily viewable to anyone at any time</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relevant Service-related privacy policies  </t>
+          <t xml:space="preserve">  Privacy policies  </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can only be implemented  </t>
+          <t xml:space="preserve">  must be easily viewable  </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  they are disclosed  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  by developers  </t>
+          <t xml:space="preserve">  to anyone at any time  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2146,12 +2240,14 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2166,32 +2262,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Description: Privacy policies can only be considered compliant if they are easily viewable to anyone at any time</t>
+          <t>Description: Privacy policies should be available before and after a user starts to use the Relevant Service</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Privacy policies  </t>
+          <t xml:space="preserve">  Privacy policies  </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can be considered  </t>
+          <t xml:space="preserve">  should be available  </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  compliant  </t>
+          <t xml:space="preserve">  before and after a user starts to use the Relevant Service  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  easily viewable to anyone at any time </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2201,69 +2297,77 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>wechat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.4 Developers shall disclose and ensure that Relevant Service-related privacy policies are easily viewable to anyone at any time (including before and after a user starts to use the Relevant Service)</t>
+          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Description: Privacy policies can only be considered compliant if they are available before and after a user starts to use the Relevant Service</t>
+          <t>Description: You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Privacy policies  </t>
+          <t xml:space="preserve">  privacy policy  </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can be considered  </t>
+          <t xml:space="preserve">  describes  </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  compliant  </t>
+          <t xml:space="preserve">  personal data you collect, how you use and share such information  </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  to end users  </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  available before and after a user starts to use the Relevant Service  </t>
+          <t xml:space="preserve">  including for advertising  </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve">  with us and other third parties</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2283,55 +2387,57 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Description: Your application or service can only collect, store, process or use data of end users (including any personal data or information) if it complies with the privacy policy and other requirements</t>
+          <t>Description: The privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your application or service  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can collect, store, process or use  </t>
+          <t xml:space="preserve"> must comply with and be consistent with </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  data of end users (including any personal data or information)  </t>
+          <t xml:space="preserve"> the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from end users  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  if it complies with the privacy policy and other requirements</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t>Third party is: WeChat or Weixin</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
+          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2341,76 +2447,82 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Description: You must establish a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information</t>
+          <t>Description: If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">  Privacy Policy  </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> establish a privacy policy </t>
+          <t xml:space="preserve">  provide and comply with  </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information </t>
+          <t xml:space="preserve">  a publicly available and easily accessible privacy policy  </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from end users </t>
+          <t xml:space="preserve">  from user  </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  to Process Platform Data  </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.7 Rules regarding User Data and Personal Data&amp;#10;2.7.1 To the extent your application or service collects, stores, process or uses data of end users (including any personal data or information, as such terms are defined under applicable law) and any activities in relation to such data shall satisfy the following requirements:&amp;#10;&amp;#10;(2) You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties (e.g. if any such third parties serves content to, or collects information from, them). Such privacy policy must, at a minimum, comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&amp;#10;(3) If you process any personal data, you shall obtain users’ express consent to such processing at the time you request such data.&amp;#10;</t>
+          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy</t>
+          <t>Description: This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">This policy </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must comply with and be consistent with </t>
+          <t xml:space="preserve"> comply with </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy </t>
+          <t xml:space="preserve"> applicable law and regulations </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2420,7 +2532,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2428,12 +2540,14 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Third party is: WeChat or Weixin</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2453,32 +2567,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Description: You can only use the Platform to Process Platform Data if you provide and comply with a publicly available and easily accessible privacy policy.</t>
+          <t>Description: You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">You  </t>
+          <t xml:space="preserve">  Privacy Policy  </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  use the Platform  </t>
+          <t xml:space="preserve">  maintain publicly available links  </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Process Platform Data  </t>
+          <t xml:space="preserve">  privacy policies  </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  privacy policy field in the settings of your App Dashboard, App Store  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  comply with a publicly available and easily accessible privacy policy  </t>
+          <t xml:space="preserve">  ensure the links remain current and up to date  </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2488,41 +2602,47 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
+          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.</t>
+          <t>Description: make a complete and accurate disclosure to your End Users</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">a privacy policy </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must comply with </t>
+          <t xml:space="preserve"> make a complete and accurate disclosure </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> applicable law and regulations </t>
+          <t xml:space="preserve"> to your End Users </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2532,7 +2652,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2542,51 +2662,57 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a. If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&amp;#10;b. This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&amp;#10;f. You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
+          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Description: You must maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.</t>
+          <t>Description: disclosure of the privacy practices and policies applicable to the Application</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">  disclosure  </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must maintain publicly available links </t>
+          <t xml:space="preserve">  practices and policies  </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to your privacy policies </t>
+          <t xml:space="preserve">  applicable to the Application  </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to ensure the links remain current and up to date </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2594,22 +2720,24 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2619,32 +2747,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Description: Your disclosure to End Users can only be complete and accurate if you provide all necessary information about the data collection and use practices associated with the Application.</t>
+          <t>Description: You will provide and adhere to a published privacy policy for your Application</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your disclosure to End Users </t>
+          <t xml:space="preserve">  You  </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> can be complete and accurate </t>
+          <t xml:space="preserve">  provide and adhere to  </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> all necessary information about the data collection and use practices associated with the Application </t>
+          <t xml:space="preserve">  a published privacy policy for your Application  </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2654,46 +2782,52 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>snap creative kit</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>c) make a complete and accurate disclosure to your End Users of the privacy practices and policies applicable to the Application that is compliant with applicable law and these Developer Terms;</t>
+          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Description: Your privacy practices and policies applicable to the Application can only be disclosed if you provide clear and prominent notice to End Users about the collection, use, sharing, and storage of their personal information.</t>
+          <t>Description: The privacy policy must be easily accessible and conspicuously linked from the Application</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy practices and policies  </t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can only be disclosed  </t>
+          <t xml:space="preserve">  must be  </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the collection, use, sharing, and storage of their personal information  </t>
+          <t xml:space="preserve">  easily accessible and conspicuously linked  </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from End Users  </t>
+          <t xml:space="preserve">  from the Application  </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2708,6 +2842,12 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2727,27 +2867,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Description: Your Application can only collect and process user data if you provide and adhere to a published privacy policy</t>
+          <t>Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your Application </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> collect and process </t>
+          <t xml:space="preserve"> must incorporate by reference and link </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> user data </t>
+          <t xml:space="preserve"> the Snap Privacy Policy </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2757,15 +2897,21 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> if you provide and adhere to a published privacy policy</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>need LINK to : Snap Privacy Policy</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2780,50 +2926,52 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must be easily accessible and conspicuously linked from the Application</t>
+          <t>Description: The privacy policy must clearly and accurately describe what user information is accessed, collected, and stored by you and your Application</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must be easily accessible and conspicuously linked </t>
+          <t xml:space="preserve">  describe  </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from the Application </t>
+          <t xml:space="preserve">  what user information is accessed, collected, and stored  </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve">  by you and your Application  </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2843,27 +2991,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must incorporate by reference and link to the Snap Privacy Policy</t>
+          <t>Description: The privacy policy must explain how and why you and your Application use, process, and share user information with Snap and other third parties</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy  </t>
+          <t xml:space="preserve">The privacy policy  </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must incorporate by reference and link  </t>
+          <t xml:space="preserve">  must explain  </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the Snap Privacy Policy  </t>
+          <t xml:space="preserve">  how and why you and your Application use, process, and share user information  </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  with Snap and other third parties  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2876,120 +3024,120 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Third party is: Snap and other third parties</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>snap creative kit</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
+          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
+</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application</t>
+          <t>Description: Your privacy policy must describe how you and third parties use, collect, and share mobile device advertising identifiers and other personal information</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">Your privacy policy  </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must clearly and accurately describe </t>
+          <t xml:space="preserve">  must describe  </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> what user information is accessed, collected, and stored by you and your Application </t>
+          <t xml:space="preserve">  how you and third parties use, collect, and share mobile device advertising identifiers and other personal information  </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Third party is: third parties</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>snap creative kit</t>
+          <t>Tapjoy</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>b. You will provide and adhere to a published privacy policy for your Application that is easily accessible and conspicuously linked from the Application, incorporates by reference and links to the Snap Privacy Policy, and clearly and accurately describes to users of your Application what user information you and your Application access, collect, and store, and how and why you and your Application use, process, and share that information with Snap and other third parties. While users of your Application may provide information directly to Snap through your implementation of the Snap Developer Program, you must not provide Snap with any personal data unless otherwise agreed to in writing by you and Snap.</t>
+          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
+</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must explain how and why the user information is used, processed, and shared with Snap and other third parties</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your privacy policy </t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> must explain </t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> how and why user information is used, processed, and shared </t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> with Snap and other third parties </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Third party is: Snap and other third parties</t>
-        </is>
-      </c>
+          <t>Description: Your privacy policy must include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3005,50 +3153,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Description: Your use, collection, and sharing of mobile device advertising identifiers and other personal information can only be implemented if your privacy policy describes these practices.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your privacy policy </t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> describes </t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> your use, collection, and sharing of mobile device advertising identifiers and other personal information </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
+          <t>Description: Provide California users the ability to opt-out from the sale of their information</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3058,8 +3184,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
-</t>
+          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3069,87 +3194,92 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must include the use of information for behaviorally targeted online advertising.</t>
+          <t>Description: As a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">a privacy policy </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> include </t>
+          <t xml:space="preserve"> provide appropriate notices to users </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the use of information for behaviorally targeted online advertising </t>
+          <t xml:space="preserve"> data collection and use practices related to your use of our Services </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t xml:space="preserve"> from user </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NULL </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> as a condition of using our Services</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
-</t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must provide an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising.</t>
+          <t>Description: Partner shall post in the Partner's App a privacy policy that abides by all applicable rules, laws, acts and regulations</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">  Partner's App  </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  post  </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  a privacy policy  </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  abide by all applicable rules, laws, acts and regulations  </t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3157,62 +3287,59 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>mention opt-out</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy must describe how you and the third parties, service providers, or vendors you engage with, such as Tapjoy, use, collect, and share mobile device advertising identifiers and other personal information, including for behaviorally targeted online advertising. . Your privacy policy must also include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising and provide California users the ability to opt-out from the sale of their information
-</t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Description: You must provide California users the ability to opt-out from the sale of their information.</t>
+          <t>Description: The privacy policy must provide legally adequate disclosure to its End Users about any information relating to End Users that will be provided or is otherwise accessible to ironSource</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">NULL </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> must provide legally adequate disclosure </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> any information relating to End Users that will be provided or is otherwise accessible </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> from End Users </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> to ironSource </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3222,78 +3349,62 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>mention opt-out : sale of their information</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t>Third party is: ironSource</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Description: Your use of our Services can only be implemented if you provide notice to your users of the data collection and disclosure practices involved and obtain their consent.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your use of our Services  </t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  can only be implemented  </t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  provide notice to your users of the data collection and disclosure practices involved and obtain their consent  </t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
+          <t>Description: The privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3303,55 +3414,61 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Description: Using our Services is only permissible if you provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.</t>
+          <t>Description: Partner confirms that it has read and understood the IronSource Mobile Privacy Policy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">Partner  </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide </t>
+          <t xml:space="preserve">  confirms  </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> appropriate notices to users of your application(s) </t>
+          <t xml:space="preserve">  it has read and understood  </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> about data collection and use practices related to your use of our Services </t>
+          <t xml:space="preserve">  the IronSource Mobile Privacy Policy  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Third party is: NULL</t>
+          <t>Third party is: IronSource Mobile Privacy Policy</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tapjoy</t>
+          <t>ironsource</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your first-party relationship with your user means that, as between you and us, you are better situated to provide notice to your users of the data collection and disclosure practices involved in your use of our Services and to obtain their consent. Accordingly, as a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services and obtain their consent to the Services’ data collection and use, including use to reward users for their engagement with Campaign Content (for incentivized campaign types) and use for behaviorally targeted online advertising. </t>
+          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3361,27 +3478,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Description: Our Services can only be used if you obtain user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising.</t>
+          <t>Description: Partner confirms that nothing in the IronSource Mobile Privacy Policy is contrary to Partner's privacy policy</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Our Services  </t>
+          <t xml:space="preserve">Partner  </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can only be used  </t>
+          <t xml:space="preserve">  confirms  </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising  </t>
+          <t xml:space="preserve">  nothing in the IronSource Mobile Privacy Policy is contrary  </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from user  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3394,107 +3511,123 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Third party is: IronSource Mobile Privacy Policy</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Description: The Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations</t>
+          <t>Description: You will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Partner  </t>
+          <t xml:space="preserve">a privacy policy </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must post  </t>
+          <t xml:space="preserve"> maintain, display and abide by </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve"> appropriate disclosures to End-Users </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  in their App  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  adheres to all applicable rules, laws, acts, and regulations  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Description: Any information relating to End Users that will be provided or is accessible to ironSource must be legally disclosed in the privacy policy</t>
+          <t>Description: Your privacy policy must comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">privacy policy </t>
+          <t xml:space="preserve">  privacy policy  </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must be legally disclosed </t>
+          <t xml:space="preserve">  comply with  </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> any information relating to End Users that will be provided or is accessible to ironSource </t>
+          <t xml:space="preserve">  all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers  </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3502,57 +3635,59 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Third party is: ironSource</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Description: The privacy policy should include an opt-out mechanism for End Users regarding targeted ads based on their behavior and interests</t>
+          <t>Description: Your privacy policy must explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> must explain </t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3562,72 +3697,76 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>mention opt-out : targeted ads based on their behavior and interests</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
+          <t>Third party is: Unity Privacy Policy, ironSource Privacy Policy</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ironsource</t>
+          <t>unity3dads</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.1Partner will use the Services only in a manner consistent with this Agreement and the Services Documentation, and will comply with all Applicable Rules, including data protection and privacy laws and rules applicable to any data of the End Users that is being accessed, collected, used and/or shared by Partner.&amp;#10;&amp;#10;Partnershall post in the Partner’s App a privacy policy that abides by all applicable rules, laws, acts and regulations and that provides legally adequate disclosure to its End Users about: (i) any information relating to End Users that will be provided or is otherwise accessible to ironSource in connection with the Services, as set forth in the IronSource Mobile Privacy Policy as available on ironSource’s website and (ii) to the extent applicable, in a conspicuous manner, a mechanism for which an End User may opt-out of receiving targeted ads based on the End User’s behavior and interests. Partne rhereby confirms that it has read and understood the IronSource Mobile Privacy Policy, and that nothing therein is contrary to Partner’s privacy policy.</t>
+          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Description: The Partner confirms that their privacy policy is consistent with the IronSource Mobile Privacy Policy</t>
+          <t>Description: Your privacy policy must provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Partner  </t>
+          <t xml:space="preserve">privacy policy </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  confirms  </t>
+          <t xml:space="preserve"> provide notice of </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  their privacy policy is consistent with the IronSource Mobile Privacy Policy  </t>
+          <t xml:space="preserve"> use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> about end users of your Application </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Third party is: IronSource Mobile Privacy Policy</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3647,41 +3786,51 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Description: A privacy policy making appropriate disclosures to End-Users must be maintained, displayed and adhered to at all times.</t>
+          <t>Description: Your privacy policy must include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">A privacy policy  </t>
+          <t xml:space="preserve">Your privacy policy </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  making appropriate disclosures  </t>
+          <t xml:space="preserve"> must include </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  End-Users  </t>
+          <t xml:space="preserve"> a link to the Unity Privacy Policy, or ironSource Privacy Policy </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t xml:space="preserve"> as applicable</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>need LINK to : Unity Privacy Policy or ironSource Privacy Policy</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3696,81 +3845,63 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must comply with all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines.</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your privacy policy </t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> must comply with </t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
+          <t>Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must explain that Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy.</t>
+          <t>Description: you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">you (including without limitation each Mobile Property) </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must explain </t>
+          <t xml:space="preserve"> have </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy </t>
+          <t xml:space="preserve"> a clearly labeled and easily accessible privacy policy </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3788,52 +3919,54 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Third party is: Unity Privacy Policy and ironSource Privacy Policy</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must disclose the use of tracking pixels, agents or other technologies that collect, use, share and store data about end users.</t>
+          <t>Description: privacy policy complies with all applicable laws</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">privacy policy </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must disclose </t>
+          <t xml:space="preserve"> complies with </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the use of tracking pixels, agents or other technologies that collect, use, share and store data </t>
+          <t xml:space="preserve"> all applicable laws </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> about end users </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3846,57 +3979,59 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.</t>
+          <t>Description: provides end users with clear and comprehensive information about cookies</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t>privacy policy</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must include </t>
+          <t xml:space="preserve"> provides</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a link to the Unity Privacy Policy or ironSource Privacy Policy </t>
+          <t xml:space="preserve"> clear and comprehensive information about cookies</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> to end users</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3904,74 +4039,74 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Third party is: Unity Privacy Policy or ironSource Privacy Policy</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>unity3dads</t>
+          <t xml:space="preserve">applovin </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"6.6. You represent and warrant that with respect to any data collected by Unity, provided by you to Unity, or to which you grant Unity access under or in connection with these Terms that constitutes “personal data” or “personal information” as defined under applicable privacy and data protection laws, you agree to provide sufficiently clear, meaningful and prominent notices to, make all required disclosures to, and obtain the necessary consent or permission from any individual to whom such data relates regarding the collection, disclosure, use and security of such data. In addition, you will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users, including disclosures that (i) comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers; (ii) explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; (iii) provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application, which privacy policy shall also include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable; and (iv) if applicable, explains how End-Users can opt out of the Offerings.</t>
+          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable.</t>
+          <t>Description: provides end users with clear and comprehensive information about device-specific information</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">  Privacy Policy  </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  provides  </t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  clear and comprehensive information  </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  about device-specific information  </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>mention opt out</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3986,50 +4121,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Description: You can use the Services only if you have a clearly labeled and easily accessible privacy policy</t>
+          <t>Description: provides end users with clear and comprehensive information about location information</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">You  </t>
+          <t>a privacy policy</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can use  </t>
+          <t xml:space="preserve"> provides</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the Services  </t>
+          <t xml:space="preserve"> clear and comprehensive information about location information</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> to end users</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4044,50 +4181,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy must comply with all applicable laws</t>
+          <t>Description: provides end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy </t>
+          <t xml:space="preserve">  Privacy Policy  </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must comply </t>
+          <t xml:space="preserve">  provides  </t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> with all applicable laws </t>
+          <t xml:space="preserve">  clear and comprehensive information  </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  about other information stored on, accessed on, or collected from end users' devices  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4102,37 +4241,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Description: You must provide end users with clear and comprehensive information about cookies</t>
+          <t>Description: includes, as applicable, information about end users' options for cookie management</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t>privacy policy</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide </t>
+          <t xml:space="preserve"> includes</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> clear and comprehensive information about cookies </t>
+          <t xml:space="preserve"> information about end users' options for cookie management</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to end users </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4140,173 +4279,203 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Description: You must provide end users with clear and comprehensive information about device-specific information</t>
+          <t>Description: You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">  You  </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide </t>
+          <t xml:space="preserve">  use  </t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> clear and comprehensive information about device-specific information </t>
+          <t xml:space="preserve">  the Services  </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to end users </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t xml:space="preserve">  The Properties  </t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  have  </t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  a clearly labeled and easily accessible privacy policy  </t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Description: You must provide end users with clear and comprehensive information about location information</t>
+          <t>Description: The privacy policy provides end users with clear and comprehensive information about cookies</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide </t>
+          <t xml:space="preserve">  provides  </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> clear and comprehensive information about location information </t>
+          <t xml:space="preserve">  clear and comprehensive information about cookies  </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to end users </t>
+          <t xml:space="preserve">  end users  </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Description: You must provide end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services</t>
+          <t>Description: The privacy policy provides information about device-specific information</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide </t>
+          <t xml:space="preserve">  provides information  </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services </t>
+          <t xml:space="preserve">  device-specific information    </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from end users' devices </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4314,57 +4483,59 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Third party is: Services</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">applovin </t>
+          <t>AdMob/AdSense</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">User will ensure that at all times you use the Services, you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy that complies with all applicable laws and, specifically, provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Description: You must provide end users with information about their options for cookie management, as applicable</t>
+          <t>Description: The privacy policy provides information about location information</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  provides information about   </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">   location information    </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4372,16 +4543,14 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>mention opt-out : cookie management</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>need link to guidance how to opt-out</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4396,32 +4565,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Description: The Services can only be used if the Properties have a clearly labeled and easily accessible privacy policy</t>
+          <t>Description: The privacy policy provides information about other information stored on, accessed on, or collected from end users' devices in connection with the Services</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Properties  </t>
+          <t xml:space="preserve">  The privacy policy  </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  have  </t>
+          <t xml:space="preserve">  provides information  </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a clearly labeled and easily accessible privacy policy  </t>
+          <t xml:space="preserve">  other information stored on, accessed on, or collected from end users' devices  </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  in connection with the Services  </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4434,12 +4603,14 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4454,12 +4625,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide end users with clear and comprehensive information about cookies</t>
+          <t>Description: The privacy policy includes information about end users' options for cookie management</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4469,17 +4640,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide end users </t>
+          <t xml:space="preserve"> includes information about </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> with clear and comprehensive information about cookies </t>
+          <t xml:space="preserve"> end users' options for cookie management </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4492,115 +4663,119 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AdMob/AdSense</t>
+          <t>vungle</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide information about device-specific information</t>
+          <t>Description: Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy </t>
+          <t xml:space="preserve">Developer </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide information </t>
+          <t xml:space="preserve"> post, maintain, abide by </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> device-specific information </t>
+          <t xml:space="preserve"> a publicly accessible privacy notice </t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t xml:space="preserve"> within the Developer App </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NULL </t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AdMob/AdSense</t>
+          <t>vungle</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide information about location information</t>
+          <t>Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy </t>
+          <t xml:space="preserve">  The privacy notice  </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide information </t>
+          <t xml:space="preserve">  satisfy  </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> location information </t>
+          <t xml:space="preserve">  the transparency and information requirements  </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  Privacy Requirements and the Agreement  </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL  </t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4608,115 +4783,119 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AdMob/AdSense</t>
+          <t>vungle</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must provide information about other information stored on, accessed on, or collected from end users' devices in connection with the Services</t>
+          <t>Description: If notice cannot be provided in or around Vungle Ads, Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy </t>
+          <t xml:space="preserve">Developer </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> provide information </t>
+          <t xml:space="preserve"> make arrangements </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> other information stored on, accessed on, or collected from end users' devices in connection with the Services </t>
+          <t xml:space="preserve"> notice </t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from end users' devices </t>
+          <t xml:space="preserve"> within the Developer App or on the landing page of the Vungle Ad </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> to provide notice </t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Third party is: Services</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> if notice cannot be provided in or around Vungle Ads</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AdMob/AdSense</t>
+          <t>vungle</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy that provides end users with clear and comprehensive information about cookies, device-specific information, location information and other information stored on, accessed on, or collected from end users' devices in connection with the Services, including, as applicable, information about end users' options for cookie management. </t>
+          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must include information about end users' options for cookie management</t>
+          <t>Description: The notice shall include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">  The notice  </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  include information  </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  </t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4724,16 +4903,14 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>mention opt-out : cookie management</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>need link to guidance how to opt-out</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4753,22 +4930,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Description: A publicly accessible privacy notice within the Developer App can only be posted, maintained, and followed if it satisfies the transparency and information requirements of the Privacy Requirements and the Agreement.</t>
+          <t>Description: The notice shall state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">A publicly accessible privacy notice  </t>
+          <t xml:space="preserve">The notice  </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can be posted, maintained, and followed  </t>
+          <t xml:space="preserve">  shall state  </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4778,7 +4955,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  satisfies the transparency and information requirements of the Privacy Requirements and the Agreement  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4786,8 +4963,18 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Third party is: third parties</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4802,46 +4989,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement.</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The privacy notice </t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> must satisfy </t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> the transparency and information requirements </t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
+          <t>Description: The notice shall include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4856,50 +5025,52 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Description: If notice cannot be provided in or around Vungle Ads, arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad must be made.</t>
+          <t>Description: The notice shall describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Privacy Policy </t>
+          <t xml:space="preserve">The notice </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must arrange </t>
+          <t xml:space="preserve"> describe </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> notice within the Developer App or on the landing page of the Vungle Ad </t>
+          <t xml:space="preserve"> the types of Ad Data collected, including Personal Data </t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to provide notice </t>
+          <t xml:space="preserve"> how and for what purposes the Ad Data will be used or transferred to third parties </t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> if notice cannot be provided in or around Vungle Ads</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Third party is: Vungle</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4914,122 +5085,126 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Description: The notice must state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads.</t>
+          <t>Description: For Ad Data protected by EU Data Protection Law, the privacy notice shall include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">The notice  </t>
+          <t xml:space="preserve">privacy notice </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must state  </t>
+          <t xml:space="preserve"> include </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  </t>
+          <t xml:space="preserve"> type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> Ad Data protected by EU Data Protection Law </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Third party is: third parties</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t>MoPub</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Description: The notice must include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting.</t>
+          <t>Description: You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">NULL </t>
+          <t xml:space="preserve">  a privacy policy  </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  post and abide by  </t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  a conspicuous and legally adequate privacy policy  </t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  on each application and/or service of the Publisher Network  </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>mention opt-out : collection and use of information for ad targeting</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>need link to guide how to opt-out</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t>MoPub</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5039,188 +5214,206 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Description: The notice must describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties.</t>
+          <t>Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">The notice  </t>
+          <t xml:space="preserve">The privacy policy </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  describe  </t>
+          <t xml:space="preserve"> must disclose </t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred  </t>
+          <t xml:space="preserve"> the collection of Service Data </t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  to third parties  </t>
+          <t xml:space="preserve"> from user </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve"> NULL </t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Third party is: MoPub</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>vungle</t>
+          <t>start.io</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Privacy Notice. &amp;#10; (a) Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App that satisfies the transparency and information requirements of the Privacy Requirements and the Agreement (including this Addendum).  If notice cannot be provided in or around Vungle Ads, then Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad.&amp;#10;(b) Without prejudice to the generality of the foregoing, such notice shall, at a minimum, include clear and comprehensive information about the following: (i) Vungle and its Demand Partner's use of Tracking Technology to collect use and share Ad Data;  (ii) the fact that third parties may collect or receive Personal Data and use that Personal Data to provide measurement services and targeted ads;  (iii) a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting;  and (vi) a description of the types of Ad Data (including Personal Data) that are collected and how and for what purposes the Ad Data collected will be used or transferred to third parties.&amp;#10;(c) To the extent Ad Data is protected by EU Data Protection Law, Developer further warrants and represents that the privacy notice provided pursuant to Section 4.1(a) (above) shall also include the following information: (i) the type of Personal Data collected by Vungle and its Demand Partners and the purposes of processing thereof;(ii) the categories of individuals who will have access to the Personal Data;  (iii) where applicable, the legitimate interests pursued by Vungle and/or its Demand Partners;  (iv) the identity of the Controller(s);  and (v) and any other information required to comply with the transparency requirements of the EU Data Protection Law."</t>
+          <t>6.1. Publisher will, and will be solely responsible to publish the App on the applicable app store (e.g., Google Play, AppStore, etc.) (“App Store”) and to comply with the App Stores’ requirements, terms of use and guidelines (“App Store Terms”) including without limitations with regards to obtaining user consent, disclosing data collection practices and options to opt-out. StartApp does not represent and warrant that use of the Service will comply with the App Store Terms, and StartApp shall have no liability for any costs, or damages incurred to the Publisher as a result of such noncompliance. Using the Service may require additional permissions from End Users that the App may not originally require.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Description: If Ad Data is protected by EU Data Protection Law, the privacy notice must include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law.</t>
+          <t>Description: App Store Terms include requirements for obtaining user consent, disclosing data collection practices, and providing opt-out options</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">privacy notice  </t>
+          <t xml:space="preserve">App Store Terms  </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  must include  </t>
+          <t xml:space="preserve">  require obtaining user consent  </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  type of Personal Data collected, purposes of processing, categories of individuals with access, legitimate interests pursued, identity of the Controller(s), any other information  </t>
+          <t xml:space="preserve">  obtaining user consent  </t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  from user  </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  required by the EU Data Protection Law  </t>
+          <t xml:space="preserve">  disclosing data collection practices  </t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Third party is: NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  unless user opts out</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MoPub</t>
+          <t>Sentry</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+          <t>What data does Sentry collect from users of my app?&amp;#10;Sentry collects only the data that you configure to be sent to Sentry. This is typically the occurrence of software bugs (Errors) or API calls, page loads, or similar requests and responses from your apps (Transactions). &amp;#10;Does that data include any personally identifiable information (PII)?&amp;#10;Data collected by Sentry does not, by default, include any PII. However, you can augment the data sent to Sentry with additional context and metadata, including user names, email addresses, or by attaching files such as logs or crash reports.&amp;#10;What does Sentry do with the data it collects?&amp;#10;Sentry processes the data you send to it to provide our application monitoring service to you. Sentry What do I need to disclose to Google Play?&amp;#10;You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Description: You can only post a privacy policy if it is conspicuous and legally adequate</t>
+          <t>Description: You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">You  </t>
+          <t xml:space="preserve">  Your app privacy policy  </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can post  </t>
+          <t xml:space="preserve">  disclose and/or include  </t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a privacy policy  </t>
+          <t xml:space="preserve">  all types of data you are collecting through your app, including data you are sending to Sentry  </t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL  </t>
+          <t xml:space="preserve">  from user  </t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  conspicuous and legally adequate  </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  NULL</t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MoPub</t>
+          <t>dropbox</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Description: Your privacy policy can only be posted on each application and/or service of the Publisher Network if it is conspicuous and legally adequate</t>
+          <t>Description: in compliance with a privacy policy that is made available to Users</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy  </t>
+          <t xml:space="preserve">  privacy policy  </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can be posted  </t>
+          <t xml:space="preserve">  comply with  </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  on each application and/or service of the Publisher Network  </t>
+          <t xml:space="preserve">  privacy policy that is made available to Users  </t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5235,55 +5428,57 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  if it is conspicuous and legally adequate</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NULL</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MoPub</t>
+          <t>dropbox</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Description: Your data collection practices can only involve third parties such as MoPub if your privacy policy discloses this collection</t>
+          <t>Description: that clearly and accurately describes to Users what user information Developer collects</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your privacy policy  </t>
+          <t xml:space="preserve">  Privacy Policy  </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  can only involve  </t>
+          <t xml:space="preserve">  describes  </t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  data collection practices  </t>
+          <t xml:space="preserve">  what user information Developer collects  </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  from user, share to third parties  </t>
+          <t xml:space="preserve">  from Users  </t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5296,22 +5491,24 @@
           <t xml:space="preserve">  NULL</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Third party is: MoPub </t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MoPub</t>
+          <t>dropbox</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network that must disclose the collection of Service Data by third parties such as MoPub for personalized advertising purposes.</t>
+          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5321,32 +5518,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Description: Your data collection practices can only be for personalized advertising purposes if your policy specifies this</t>
+          <t>Description: and how Developer uses and shares that information</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your policy </t>
+          <t xml:space="preserve">  Developer  </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> specifies </t>
+          <t xml:space="preserve">  uses and shares   </t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> data collection practices for personalized advertising </t>
+          <t xml:space="preserve">  information    </t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5356,78 +5553,82 @@
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>start.io</t>
+          <t>ZOOM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>6.1. Publisher will, and will be solely responsible to publish the App on the applicable app store (e.g., Google Play, AppStore, etc.) (“App Store”) and to comply with the App Stores’ requirements, terms of use and guidelines (“App Store Terms”) including without limitations with regards to obtaining user consent, disclosing data collection practices and options to opt-out. StartApp does not represent and warrant that use of the Service will comply with the App Store Terms, and StartApp shall have no liability for any costs, or damages incurred to the Publisher as a result of such noncompliance. Using the Service may require additional permissions from End Users that the App may not originally require.</t>
+          <t xml:space="preserve">You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ("Your Terms"). </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>type3-Q1</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Description: App Store Terms require obtaining user consent, disclosing data collection practices, and providing opt-out options for compliance.</t>
+          <t>Description: You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ('Your Terms').</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  Your Terms  </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  provide  </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  terms of service, privacy policy and support information  </t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  to the Zoom Marketplace  </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>mention opt-out</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>need link to guidance how to opt-out</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentry</t>
+          <t>inMobi</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What data does Sentry collect from users of my app?&amp;#10;Sentry collects only the data that you configure to be sent to Sentry. This is typically the occurrence of software bugs (Errors) or API calls, page loads, or similar requests and responses from your apps (Transactions). &amp;#10;Does that data include any personally identifiable information (PII)?&amp;#10;Data collected by Sentry does not, by default, include any PII. However, you can augment the data sent to Sentry with additional context and metadata, including user names, email addresses, or by attaching files such as logs or crash reports.&amp;#10;What does Sentry do with the data it collects?&amp;#10;Sentry processes the data you send to it to provide our application monitoring service to you. Sentry What do I need to disclose to Google Play?&amp;#10;You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.</t>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5437,140 +5638,184 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Description: You must disclose and/or include in your app privacy policy all types of data collected through your app, including data sent to Sentry.</t>
+          <t>Description: Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">You </t>
+          <t xml:space="preserve">  Each Party  </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> disclose and/or include </t>
+          <t xml:space="preserve">  provide  </t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> all types of data collected through your app, including data sent to Sentry </t>
+          <t xml:space="preserve">  a conspicuous privacy policy  </t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  in accordance with applicable privacy laws  </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL</t>
+          <t xml:space="preserve">  NULL</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t>inMobi</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Description: User Data can only be collected, processed, transmitted, maintained, and used if it complies with a privacy policy</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">a privacy policy </t>
+          <t xml:space="preserve">{#type2#, &lt;Each privacy policy  </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> allows </t>
+          <t xml:space="preserve">  must set out conspicuously  </t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> User Data to be collected, processed, transmitted, maintained, and used </t>
+          <t xml:space="preserve">  a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases  </t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve">  NULL  </t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> if it complies with a privacy policy</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Third party is: certain third parties</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Each privacy policy  </t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  must set out conspicuously  </t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases  </t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL  </t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  NULL</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Third party is: certain third parties</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t>inMobi</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>type3-Q1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must be made available to Users</t>
+          <t>Description: Certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out elections which You agree to comply with, if applicable to the Inventory.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy </t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must be made available </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to Users </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from user </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NULL </t>
+          <t xml:space="preserve"> NULL</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5580,45 +5825,55 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
+          <t>mention opt-out</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dropbox</t>
+          <t>inMobi</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
+          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Description: The privacy policy must clearly and accurately describe what user information Developer collects</t>
+          <t>Description: Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">The privacy policy </t>
+          <t xml:space="preserve">Such privacy policy </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must clearly and accurately describe </t>
+          <t xml:space="preserve"> shall mention </t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> what user information Developer collects </t>
+          <t xml:space="preserve"> use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements </t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5636,356 +5891,18 @@
           <t xml:space="preserve"> NULL</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Third party is: third parties</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>dropbox</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In connection with operating the Developer App, Developer will:&amp;#10;3.1. ensure that User Data is collected, processed, transmitted, maintained, and used in compliance with a privacy policy that is made available to Users and that clearly and accurately describes to Users what user information Developer collects and how Developer uses and shares that information; </t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>type2</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Description: The privacy policy must also describe how Developer uses and shares that information</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The privacy policy  </t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  must describe  </t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  how Developer uses and shares information  </t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>ZOOM</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ("Your Terms"). </t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>type2</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Description: Your App can only be submitted to the Zoom Marketplace if you provide your terms of service, privacy policy, and support information ('Your Terms').</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your Terms  </t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  can be submitted  </t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Your App  </t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  to the Zoom Marketplace  </t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL  </t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  NULL</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>inMobi</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>type1</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Description: A privacy policy must be provided conspicuously and be adequate in accordance with applicable privacy laws.</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A privacy policy </t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> must be provided conspicuously and be adequate </t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> in accordance with applicable privacy laws </t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>inMobi</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>type2</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Description: Data collection and sharing practices can only be implemented if the privacy policy conspicuously describes the data sets collected, use cases related to personal data/information, and mentions that such data will be shared with certain third parties for applicable use cases.</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">privacy policy </t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> conspicuously describes </t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> data sets collected, use cases related to personal data/information, mentions data sharing </t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Third party is: certain third parties</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>inMobi</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>type3-Q1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Description: Providing sufficient notice regarding rights of End Users with regard to their personal information and clearly providing for mechanisms of Opt Out elections can only be done if You comply with certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws, if applicable to the Inventory.</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>mention opt out</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>inMobi</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Each Party agrees to comply with its obligations with respect to End User data as stated in this Contract and as applicable to it in its processing thereof under relevant privacy laws. Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws. Each privacy policy must at a minimum set out conspicuously a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases. Certain privacy laws such as CCPA, CPRA and/ or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out (defined below) elections which You agree to comply with, if applicable to the Inventory. Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>type2</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Description: The privacy policy must mention the use of third parties and use of cookies for attribution and/or serving targeted Advertisements.</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The privacy policy </t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> must mention </t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> the use of third parties and use of cookies for attribution and/or serving targeted Advertisements </t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL </t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NULL</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Third party is: third parties</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
